--- a/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.616966312332579</v>
+        <v>2.61696631233275</v>
       </c>
       <c r="C2">
-        <v>0.6461420206921673</v>
+        <v>0.6461420206919968</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07883174789015612</v>
+        <v>0.07883174789019165</v>
       </c>
       <c r="F2">
-        <v>1.97962993347393</v>
+        <v>1.979629933473916</v>
       </c>
       <c r="G2">
         <v>1.682847710464202</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1369942596195628</v>
+        <v>0.1369942596195486</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8036450101175703</v>
+        <v>0.8036450101175916</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.254335220378721</v>
+        <v>2.254335220378607</v>
       </c>
       <c r="C3">
-        <v>0.5594231791976085</v>
+        <v>0.5594231791975517</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06826262105848002</v>
+        <v>0.06826262105849068</v>
       </c>
       <c r="F3">
-        <v>1.721245044102247</v>
+        <v>1.721245044102233</v>
       </c>
       <c r="G3">
-        <v>1.497470710960485</v>
+        <v>1.497470710960513</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.034980154773876</v>
+        <v>2.034980154773933</v>
       </c>
       <c r="C4">
-        <v>0.5068733561823819</v>
+        <v>0.5068733561824104</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06184143469522851</v>
+        <v>0.06184143469517878</v>
       </c>
       <c r="F4">
         <v>1.566310158692303</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6257931561032493</v>
+        <v>0.6257931561032422</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.946288050959197</v>
+        <v>1.946288050959254</v>
       </c>
       <c r="C5">
-        <v>0.4856007080285565</v>
+        <v>0.4856007080286133</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05923949953811913</v>
+        <v>0.05923949953807295</v>
       </c>
       <c r="F5">
         <v>1.503991346356088</v>
       </c>
       <c r="G5">
-        <v>1.3442172001823</v>
+        <v>1.344217200182314</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5986421038641296</v>
+        <v>0.5986421038641367</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.931599218856206</v>
+        <v>1.931599218856007</v>
       </c>
       <c r="C6">
-        <v>0.4820760588784765</v>
+        <v>0.482076058878306</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05880827369593078</v>
+        <v>0.05880827369594854</v>
       </c>
       <c r="F6">
-        <v>1.4936895870933</v>
+        <v>1.493689587093286</v>
       </c>
       <c r="G6">
-        <v>1.337015521111255</v>
+        <v>1.337015521111269</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1287680790705821</v>
+        <v>0.1287680790705856</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5941442143485389</v>
+        <v>0.5941442143485318</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.033781367744609</v>
+        <v>2.033781367744638</v>
       </c>
       <c r="C7">
-        <v>0.5065859330224214</v>
+        <v>0.5065859330222224</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06180628743428684</v>
+        <v>0.0618062874342904</v>
       </c>
       <c r="F7">
         <v>1.565466537484753</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1298337498834563</v>
+        <v>0.1298337498834599</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.491161352397455</v>
+        <v>2.491161352397683</v>
       </c>
       <c r="C8">
-        <v>0.6160759012753374</v>
+        <v>0.6160759012757921</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07517181632569248</v>
+        <v>0.07517181632570313</v>
       </c>
       <c r="F8">
         <v>1.889695094406264</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1353039943056515</v>
+        <v>0.135303994305648</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7652443941411633</v>
+        <v>0.765244394141142</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.421070906626937</v>
+        <v>3.421070906626653</v>
       </c>
       <c r="C9">
-        <v>0.8380025905497064</v>
+        <v>0.8380025905493085</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1020442797690251</v>
+        <v>0.1020442797690997</v>
       </c>
       <c r="F9">
-        <v>2.560782162604426</v>
+        <v>2.560782162604397</v>
       </c>
       <c r="G9">
         <v>2.110290396487343</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1494736934027934</v>
+        <v>0.1494736934027721</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.048522496269406</v>
+        <v>1.048522496269435</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.135222321731874</v>
+        <v>4.13522232173176</v>
       </c>
       <c r="C10">
-        <v>1.008173893940636</v>
+        <v>1.008173893940494</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1223786594125187</v>
+        <v>0.1223786594125684</v>
       </c>
       <c r="F10">
         <v>3.084458470685178</v>
       </c>
       <c r="G10">
-        <v>2.506206688714272</v>
+        <v>2.506206688714229</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.162752037295828</v>
+        <v>0.1627520372958493</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.26519142385019</v>
+        <v>1.265191423850219</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.469699980898611</v>
+        <v>4.46969998089827</v>
       </c>
       <c r="C11">
-        <v>1.087863113447185</v>
+        <v>1.087863113447213</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.131804942150719</v>
+        <v>0.1318049421507403</v>
       </c>
       <c r="F11">
         <v>3.331717415155339</v>
       </c>
       <c r="G11">
-        <v>2.696334045298642</v>
+        <v>2.696334045298613</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1696233062903474</v>
+        <v>0.1696233062903438</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.366404376072992</v>
+        <v>1.366404376073007</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.598022630757328</v>
+        <v>4.598022630757214</v>
       </c>
       <c r="C12">
-        <v>1.118439135021731</v>
+        <v>1.118439135022015</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1354041844194782</v>
+        <v>0.1354041844194533</v>
       </c>
       <c r="F12">
-        <v>3.426878183053674</v>
+        <v>3.426878183053702</v>
       </c>
       <c r="G12">
-        <v>2.770026802123226</v>
+        <v>2.770026802123212</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1723657315507694</v>
+        <v>0.1723657315507907</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.40518931149451</v>
+        <v>1.405189311494482</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.570307117660377</v>
+        <v>4.570307117660548</v>
       </c>
       <c r="C13">
-        <v>1.111835004604956</v>
+        <v>1.111835004604984</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.134627626206349</v>
+        <v>0.1346276262064166</v>
       </c>
       <c r="F13">
-        <v>3.40631158306968</v>
+        <v>3.406311583069709</v>
       </c>
       <c r="G13">
-        <v>2.754075859479386</v>
+        <v>2.754075859479414</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.480222057813535</v>
+        <v>4.480222057813251</v>
       </c>
       <c r="C14">
-        <v>1.090370161882475</v>
+        <v>1.090370161882021</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1321004314799232</v>
+        <v>0.1321004314798628</v>
       </c>
       <c r="F14">
-        <v>3.339514267658927</v>
+        <v>3.339514267658899</v>
       </c>
       <c r="G14">
         <v>2.702361212106965</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1698459801263645</v>
+        <v>0.169845980126361</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.425268068461207</v>
+        <v>4.425268068460923</v>
       </c>
       <c r="C15">
-        <v>1.077276678806072</v>
+        <v>1.077276678805958</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.130556460431098</v>
+        <v>0.1305564604310625</v>
       </c>
       <c r="F15">
         <v>3.298805507800211</v>
       </c>
       <c r="G15">
-        <v>2.670913537245937</v>
+        <v>2.67091353724598</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1686873614593551</v>
+        <v>0.1686873614593658</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.113579848842846</v>
+        <v>4.113579848842676</v>
       </c>
       <c r="C16">
-        <v>1.003017737480775</v>
+        <v>1.003017737480292</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1217665370049019</v>
+        <v>0.1217665370048699</v>
       </c>
       <c r="F16">
         <v>3.068500260112074</v>
       </c>
       <c r="G16">
-        <v>2.494003985395523</v>
+        <v>2.494003985395537</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1623214145795977</v>
+        <v>0.1623214145795693</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.258636541190278</v>
+        <v>1.258636541190285</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.925017063761629</v>
+        <v>3.925017063761686</v>
       </c>
       <c r="C17">
-        <v>0.9580933015913899</v>
+        <v>0.9580933015911057</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1164222721033141</v>
+        <v>0.1164222721033532</v>
       </c>
       <c r="F17">
         <v>2.9296834063137</v>
       </c>
       <c r="G17">
-        <v>2.388212096862787</v>
+        <v>2.388212096862773</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1586427546391995</v>
+        <v>0.1586427546391818</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.201496287161483</v>
+        <v>1.201496287161476</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.817445764282638</v>
+        <v>3.817445764282809</v>
       </c>
       <c r="C18">
-        <v>0.9324633969695242</v>
+        <v>0.9324633969696947</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1133646739088618</v>
+        <v>0.1133646739088192</v>
       </c>
       <c r="F18">
         <v>2.850674621871747</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1566036522262877</v>
+        <v>0.1566036522263161</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.781168072105856</v>
+        <v>3.781168072105913</v>
       </c>
       <c r="C19">
-        <v>0.9238195124113702</v>
+        <v>0.9238195124111144</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1123320942041417</v>
+        <v>0.1123320942041346</v>
       </c>
       <c r="F19">
         <v>2.824060528544919</v>
       </c>
       <c r="G19">
-        <v>2.308152692115129</v>
+        <v>2.308152692115144</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1559258492060032</v>
+        <v>0.1559258492059676</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.157869581358071</v>
+        <v>1.157869581358078</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.944996391648431</v>
+        <v>3.944996391648544</v>
       </c>
       <c r="C20">
-        <v>0.9628534227502143</v>
+        <v>0.9628534227504701</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1169894628918371</v>
+        <v>0.1169894628917945</v>
       </c>
       <c r="F20">
-        <v>2.944372715543551</v>
+        <v>2.944372715543523</v>
       </c>
       <c r="G20">
         <v>2.399376252528327</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1590262686842046</v>
+        <v>0.1590262686842294</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.207553176200094</v>
+        <v>1.207553176200101</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.50663461925501</v>
+        <v>4.506634619254953</v>
       </c>
       <c r="C21">
-        <v>1.096663434170267</v>
+        <v>1.096663434169784</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1328418858492491</v>
+        <v>0.132841885849281</v>
       </c>
       <c r="F21">
         <v>3.359090761165277</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1704066700139357</v>
+        <v>0.170406670013918</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.883556453962456</v>
+        <v>4.883556453962285</v>
       </c>
       <c r="C22">
-        <v>1.186486562368486</v>
+        <v>1.186486562368543</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>3.63917787026017</v>
       </c>
       <c r="G22">
-        <v>2.935448440932262</v>
+        <v>2.935448440932234</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1786753947789848</v>
+        <v>0.1786753947789883</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.491399082528844</v>
+        <v>1.491399082528886</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.681379039626847</v>
+        <v>4.681379039627075</v>
       </c>
       <c r="C23">
-        <v>1.138302417610703</v>
+        <v>1.138302417610873</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1377370083221869</v>
+        <v>0.1377370083222083</v>
       </c>
       <c r="F23">
-        <v>3.488777621483592</v>
+        <v>3.488777621483621</v>
       </c>
       <c r="G23">
-        <v>2.818114161573774</v>
+        <v>2.818114161573817</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1741782863564509</v>
+        <v>0.1741782863564332</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.430369782862769</v>
+        <v>1.430369782862783</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,13 +1251,13 @@
         <v>3.935961154390156</v>
       </c>
       <c r="C24">
-        <v>0.9607007612967209</v>
+        <v>0.9607007612967493</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1167329898798108</v>
+        <v>0.1167329898797824</v>
       </c>
       <c r="F24">
         <v>2.937729207458517</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1588526473938181</v>
+        <v>0.1588526473938217</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.204814148188895</v>
+        <v>1.204814148188888</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,13 +1289,13 @@
         <v>3.164940586599812</v>
       </c>
       <c r="C25">
-        <v>0.7769341705930799</v>
+        <v>0.7769341705930231</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09468543145919384</v>
+        <v>0.09468543145918673</v>
       </c>
       <c r="F25">
         <v>2.374582192310626</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1451990785038255</v>
+        <v>0.1451990785038078</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9706276379472243</v>
+        <v>0.9706276379472101</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.61696631233275</v>
+        <v>2.616966312332579</v>
       </c>
       <c r="C2">
-        <v>0.6461420206919968</v>
+        <v>0.6461420206921673</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07883174789019165</v>
+        <v>0.07883174789015612</v>
       </c>
       <c r="F2">
-        <v>1.979629933473916</v>
+        <v>1.97962993347393</v>
       </c>
       <c r="G2">
         <v>1.682847710464202</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1369942596195486</v>
+        <v>0.1369942596195628</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8036450101175916</v>
+        <v>0.8036450101175703</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.254335220378607</v>
+        <v>2.254335220378721</v>
       </c>
       <c r="C3">
-        <v>0.5594231791975517</v>
+        <v>0.5594231791976085</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06826262105849068</v>
+        <v>0.06826262105848002</v>
       </c>
       <c r="F3">
-        <v>1.721245044102233</v>
+        <v>1.721245044102247</v>
       </c>
       <c r="G3">
-        <v>1.497470710960513</v>
+        <v>1.497470710960485</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.034980154773933</v>
+        <v>2.034980154773876</v>
       </c>
       <c r="C4">
-        <v>0.5068733561824104</v>
+        <v>0.5068733561823819</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06184143469517878</v>
+        <v>0.06184143469522851</v>
       </c>
       <c r="F4">
         <v>1.566310158692303</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6257931561032422</v>
+        <v>0.6257931561032493</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.946288050959254</v>
+        <v>1.946288050959197</v>
       </c>
       <c r="C5">
-        <v>0.4856007080286133</v>
+        <v>0.4856007080285565</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05923949953807295</v>
+        <v>0.05923949953811913</v>
       </c>
       <c r="F5">
         <v>1.503991346356088</v>
       </c>
       <c r="G5">
-        <v>1.344217200182314</v>
+        <v>1.3442172001823</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5986421038641367</v>
+        <v>0.5986421038641296</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.931599218856007</v>
+        <v>1.931599218856206</v>
       </c>
       <c r="C6">
-        <v>0.482076058878306</v>
+        <v>0.4820760588784765</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05880827369594854</v>
+        <v>0.05880827369593078</v>
       </c>
       <c r="F6">
-        <v>1.493689587093286</v>
+        <v>1.4936895870933</v>
       </c>
       <c r="G6">
-        <v>1.337015521111269</v>
+        <v>1.337015521111255</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1287680790705856</v>
+        <v>0.1287680790705821</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5941442143485318</v>
+        <v>0.5941442143485389</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.033781367744638</v>
+        <v>2.033781367744609</v>
       </c>
       <c r="C7">
-        <v>0.5065859330222224</v>
+        <v>0.5065859330224214</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0618062874342904</v>
+        <v>0.06180628743428684</v>
       </c>
       <c r="F7">
         <v>1.565466537484753</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1298337498834599</v>
+        <v>0.1298337498834563</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.491161352397683</v>
+        <v>2.491161352397455</v>
       </c>
       <c r="C8">
-        <v>0.6160759012757921</v>
+        <v>0.6160759012753374</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07517181632570313</v>
+        <v>0.07517181632569248</v>
       </c>
       <c r="F8">
         <v>1.889695094406264</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.135303994305648</v>
+        <v>0.1353039943056515</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.765244394141142</v>
+        <v>0.7652443941411633</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.421070906626653</v>
+        <v>3.421070906626937</v>
       </c>
       <c r="C9">
-        <v>0.8380025905493085</v>
+        <v>0.8380025905497064</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1020442797690997</v>
+        <v>0.1020442797690251</v>
       </c>
       <c r="F9">
-        <v>2.560782162604397</v>
+        <v>2.560782162604426</v>
       </c>
       <c r="G9">
         <v>2.110290396487343</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1494736934027721</v>
+        <v>0.1494736934027934</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.048522496269435</v>
+        <v>1.048522496269406</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.13522232173176</v>
+        <v>4.135222321731874</v>
       </c>
       <c r="C10">
-        <v>1.008173893940494</v>
+        <v>1.008173893940636</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1223786594125684</v>
+        <v>0.1223786594125187</v>
       </c>
       <c r="F10">
         <v>3.084458470685178</v>
       </c>
       <c r="G10">
-        <v>2.506206688714229</v>
+        <v>2.506206688714272</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1627520372958493</v>
+        <v>0.162752037295828</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.265191423850219</v>
+        <v>1.26519142385019</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.46969998089827</v>
+        <v>4.469699980898611</v>
       </c>
       <c r="C11">
-        <v>1.087863113447213</v>
+        <v>1.087863113447185</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1318049421507403</v>
+        <v>0.131804942150719</v>
       </c>
       <c r="F11">
         <v>3.331717415155339</v>
       </c>
       <c r="G11">
-        <v>2.696334045298613</v>
+        <v>2.696334045298642</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1696233062903438</v>
+        <v>0.1696233062903474</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.366404376073007</v>
+        <v>1.366404376072992</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.598022630757214</v>
+        <v>4.598022630757328</v>
       </c>
       <c r="C12">
-        <v>1.118439135022015</v>
+        <v>1.118439135021731</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1354041844194533</v>
+        <v>0.1354041844194782</v>
       </c>
       <c r="F12">
-        <v>3.426878183053702</v>
+        <v>3.426878183053674</v>
       </c>
       <c r="G12">
-        <v>2.770026802123212</v>
+        <v>2.770026802123226</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1723657315507907</v>
+        <v>0.1723657315507694</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.405189311494482</v>
+        <v>1.40518931149451</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.570307117660548</v>
+        <v>4.570307117660377</v>
       </c>
       <c r="C13">
-        <v>1.111835004604984</v>
+        <v>1.111835004604956</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1346276262064166</v>
+        <v>0.134627626206349</v>
       </c>
       <c r="F13">
-        <v>3.406311583069709</v>
+        <v>3.40631158306968</v>
       </c>
       <c r="G13">
-        <v>2.754075859479414</v>
+        <v>2.754075859479386</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.480222057813251</v>
+        <v>4.480222057813535</v>
       </c>
       <c r="C14">
-        <v>1.090370161882021</v>
+        <v>1.090370161882475</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1321004314798628</v>
+        <v>0.1321004314799232</v>
       </c>
       <c r="F14">
-        <v>3.339514267658899</v>
+        <v>3.339514267658927</v>
       </c>
       <c r="G14">
         <v>2.702361212106965</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.169845980126361</v>
+        <v>0.1698459801263645</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.425268068460923</v>
+        <v>4.425268068461207</v>
       </c>
       <c r="C15">
-        <v>1.077276678805958</v>
+        <v>1.077276678806072</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1305564604310625</v>
+        <v>0.130556460431098</v>
       </c>
       <c r="F15">
         <v>3.298805507800211</v>
       </c>
       <c r="G15">
-        <v>2.67091353724598</v>
+        <v>2.670913537245937</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1686873614593658</v>
+        <v>0.1686873614593551</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.113579848842676</v>
+        <v>4.113579848842846</v>
       </c>
       <c r="C16">
-        <v>1.003017737480292</v>
+        <v>1.003017737480775</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1217665370048699</v>
+        <v>0.1217665370049019</v>
       </c>
       <c r="F16">
         <v>3.068500260112074</v>
       </c>
       <c r="G16">
-        <v>2.494003985395537</v>
+        <v>2.494003985395523</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1623214145795693</v>
+        <v>0.1623214145795977</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.258636541190285</v>
+        <v>1.258636541190278</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.925017063761686</v>
+        <v>3.925017063761629</v>
       </c>
       <c r="C17">
-        <v>0.9580933015911057</v>
+        <v>0.9580933015913899</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1164222721033532</v>
+        <v>0.1164222721033141</v>
       </c>
       <c r="F17">
         <v>2.9296834063137</v>
       </c>
       <c r="G17">
-        <v>2.388212096862773</v>
+        <v>2.388212096862787</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1586427546391818</v>
+        <v>0.1586427546391995</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.201496287161476</v>
+        <v>1.201496287161483</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.817445764282809</v>
+        <v>3.817445764282638</v>
       </c>
       <c r="C18">
-        <v>0.9324633969696947</v>
+        <v>0.9324633969695242</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1133646739088192</v>
+        <v>0.1133646739088618</v>
       </c>
       <c r="F18">
         <v>2.850674621871747</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1566036522263161</v>
+        <v>0.1566036522262877</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.781168072105913</v>
+        <v>3.781168072105856</v>
       </c>
       <c r="C19">
-        <v>0.9238195124111144</v>
+        <v>0.9238195124113702</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1123320942041346</v>
+        <v>0.1123320942041417</v>
       </c>
       <c r="F19">
         <v>2.824060528544919</v>
       </c>
       <c r="G19">
-        <v>2.308152692115144</v>
+        <v>2.308152692115129</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1559258492059676</v>
+        <v>0.1559258492060032</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.157869581358078</v>
+        <v>1.157869581358071</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.944996391648544</v>
+        <v>3.944996391648431</v>
       </c>
       <c r="C20">
-        <v>0.9628534227504701</v>
+        <v>0.9628534227502143</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1169894628917945</v>
+        <v>0.1169894628918371</v>
       </c>
       <c r="F20">
-        <v>2.944372715543523</v>
+        <v>2.944372715543551</v>
       </c>
       <c r="G20">
         <v>2.399376252528327</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1590262686842294</v>
+        <v>0.1590262686842046</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.207553176200101</v>
+        <v>1.207553176200094</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.506634619254953</v>
+        <v>4.50663461925501</v>
       </c>
       <c r="C21">
-        <v>1.096663434169784</v>
+        <v>1.096663434170267</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.132841885849281</v>
+        <v>0.1328418858492491</v>
       </c>
       <c r="F21">
         <v>3.359090761165277</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.170406670013918</v>
+        <v>0.1704066700139357</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.883556453962285</v>
+        <v>4.883556453962456</v>
       </c>
       <c r="C22">
-        <v>1.186486562368543</v>
+        <v>1.186486562368486</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>3.63917787026017</v>
       </c>
       <c r="G22">
-        <v>2.935448440932234</v>
+        <v>2.935448440932262</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1786753947789883</v>
+        <v>0.1786753947789848</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.491399082528886</v>
+        <v>1.491399082528844</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.681379039627075</v>
+        <v>4.681379039626847</v>
       </c>
       <c r="C23">
-        <v>1.138302417610873</v>
+        <v>1.138302417610703</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1377370083222083</v>
+        <v>0.1377370083221869</v>
       </c>
       <c r="F23">
-        <v>3.488777621483621</v>
+        <v>3.488777621483592</v>
       </c>
       <c r="G23">
-        <v>2.818114161573817</v>
+        <v>2.818114161573774</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1741782863564332</v>
+        <v>0.1741782863564509</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.430369782862783</v>
+        <v>1.430369782862769</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,13 +1251,13 @@
         <v>3.935961154390156</v>
       </c>
       <c r="C24">
-        <v>0.9607007612967493</v>
+        <v>0.9607007612967209</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1167329898797824</v>
+        <v>0.1167329898798108</v>
       </c>
       <c r="F24">
         <v>2.937729207458517</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1588526473938217</v>
+        <v>0.1588526473938181</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.204814148188888</v>
+        <v>1.204814148188895</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,13 +1289,13 @@
         <v>3.164940586599812</v>
       </c>
       <c r="C25">
-        <v>0.7769341705930231</v>
+        <v>0.7769341705930799</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09468543145918673</v>
+        <v>0.09468543145919384</v>
       </c>
       <c r="F25">
         <v>2.374582192310626</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1451990785038078</v>
+        <v>0.1451990785038255</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9706276379472101</v>
+        <v>0.9706276379472243</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.616966312332579</v>
+        <v>2.616424850917269</v>
       </c>
       <c r="C2">
-        <v>0.6461420206921673</v>
+        <v>0.6459385686443966</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07883174789015612</v>
+        <v>0.07915938590760163</v>
       </c>
       <c r="F2">
-        <v>1.97962993347393</v>
+        <v>1.977137665163738</v>
       </c>
       <c r="G2">
-        <v>1.682847710464202</v>
+        <v>0.541022479180171</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.139294858851969</v>
       </c>
       <c r="I2">
-        <v>0.1369942596195628</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1363816543412604</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8036450101175703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.8042232110721486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.254335220378721</v>
+        <v>2.253913001292403</v>
       </c>
       <c r="C3">
-        <v>0.5594231791976085</v>
+        <v>0.5592676641318519</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06826262105848002</v>
+        <v>0.06854901927159318</v>
       </c>
       <c r="F3">
-        <v>1.721245044102247</v>
+        <v>1.719071516530633</v>
       </c>
       <c r="G3">
-        <v>1.497470710960485</v>
+        <v>0.4764423250313712</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.01939079468012</v>
       </c>
       <c r="I3">
-        <v>0.1323342235170273</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1317887538373945</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6928893056713079</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.6934037920891356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.034980154773876</v>
+        <v>2.034623498228939</v>
       </c>
       <c r="C4">
-        <v>0.5068733561823819</v>
+        <v>0.506745133208625</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06184143469522851</v>
+        <v>0.06210277077025594</v>
       </c>
       <c r="F4">
-        <v>1.566310158692303</v>
+        <v>1.564328384614811</v>
       </c>
       <c r="G4">
-        <v>1.387913057910239</v>
+        <v>0.4381762128259652</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9486359846392389</v>
       </c>
       <c r="I4">
-        <v>0.1298466110816641</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1293414190464475</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6257931561032493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.6262673692040295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.946288050959197</v>
+        <v>1.945956456125799</v>
       </c>
       <c r="C5">
-        <v>0.4856007080285565</v>
+        <v>0.4854831507889799</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05923949953811913</v>
+        <v>0.05949067634609762</v>
       </c>
       <c r="F5">
-        <v>1.503991346356088</v>
+        <v>1.502086908108325</v>
       </c>
       <c r="G5">
-        <v>1.3442172001823</v>
+        <v>0.4228895867316993</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9204430826125503</v>
       </c>
       <c r="I5">
-        <v>0.128917502332726</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1284285269937939</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5986421038641296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.5990996476464971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.931599218856206</v>
+        <v>1.931271692757548</v>
       </c>
       <c r="C6">
-        <v>0.4820760588784765</v>
+        <v>0.4819602473593818</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05880827369593078</v>
+        <v>0.05905776649472472</v>
       </c>
       <c r="F6">
-        <v>1.4936895870933</v>
+        <v>1.491797946880453</v>
       </c>
       <c r="G6">
-        <v>1.337015521111255</v>
+        <v>0.4203686600271368</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9157981203288017</v>
       </c>
       <c r="I6">
-        <v>0.1287680790705821</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.128281785721942</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5941442143485389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.5945989754943568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.033781367744609</v>
+        <v>2.033425055562276</v>
       </c>
       <c r="C7">
-        <v>0.5065859330224214</v>
+        <v>0.5064578556344941</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06180628743428684</v>
+        <v>0.06206748629477943</v>
       </c>
       <c r="F7">
-        <v>1.565466537484753</v>
+        <v>1.563485809411802</v>
       </c>
       <c r="G7">
-        <v>1.387320068826654</v>
+        <v>0.4379688606696845</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9482532742920711</v>
       </c>
       <c r="I7">
-        <v>0.1298337498834563</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1293287772985217</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6254262602105811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.6259002495071684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.491161352397455</v>
+        <v>2.490662766587491</v>
       </c>
       <c r="C8">
-        <v>0.6160759012753374</v>
+        <v>0.6158894752301478</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07517181632569248</v>
+        <v>0.07548517386621967</v>
       </c>
       <c r="F8">
-        <v>1.889695094406264</v>
+        <v>1.887313669840239</v>
       </c>
       <c r="G8">
-        <v>1.617967250554827</v>
+        <v>0.5184413225057369</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.097306069004532</v>
       </c>
       <c r="I8">
-        <v>0.1353039943056515</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1347147591485616</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7652443941411633</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.7658008864168551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.421070906626937</v>
+        <v>3.420218439151995</v>
       </c>
       <c r="C9">
-        <v>0.8380025905497064</v>
+        <v>0.8376804162753047</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1020442797690251</v>
+        <v>0.1024625481701591</v>
       </c>
       <c r="F9">
-        <v>2.560782162604426</v>
+        <v>2.557573673378755</v>
       </c>
       <c r="G9">
-        <v>2.110290396487343</v>
+        <v>0.6893416010605478</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.416413121882329</v>
       </c>
       <c r="I9">
-        <v>0.1494736934027934</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1487096275669728</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.048522496269406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.049229881431899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.135222321731874</v>
+        <v>4.134040508678652</v>
       </c>
       <c r="C10">
-        <v>1.008173893940636</v>
+        <v>1.007731747878097</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1223786594125187</v>
+        <v>0.1228764962708411</v>
       </c>
       <c r="F10">
-        <v>3.084458470685178</v>
+        <v>3.080600680238945</v>
       </c>
       <c r="G10">
-        <v>2.506206688714272</v>
+        <v>0.8262028166714117</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.673655654191933</v>
       </c>
       <c r="I10">
-        <v>0.162752037295828</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1618502288123231</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.26519142385019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.265999972932967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.469699980898611</v>
+        <v>4.468346528613438</v>
       </c>
       <c r="C11">
-        <v>1.087863113447185</v>
+        <v>1.087359939568984</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.131804942150719</v>
+        <v>0.1323397444127075</v>
       </c>
       <c r="F11">
-        <v>3.331717415155339</v>
+        <v>3.327550561796158</v>
       </c>
       <c r="G11">
-        <v>2.696334045298642</v>
+        <v>0.891793680887119</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.797332352021428</v>
       </c>
       <c r="I11">
-        <v>0.1696233062903474</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.168655862663087</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.366404376072992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.367255920943677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.598022630757328</v>
+        <v>4.596600331857189</v>
       </c>
       <c r="C12">
-        <v>1.118439135021731</v>
+        <v>1.11791170705493</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1354041844194782</v>
+        <v>0.1359531167333863</v>
       </c>
       <c r="F12">
-        <v>3.426878183053674</v>
+        <v>3.422591843503739</v>
       </c>
       <c r="G12">
-        <v>2.770026802123226</v>
+        <v>0.9171966843369148</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.845290323338787</v>
       </c>
       <c r="I12">
-        <v>0.1723657315507694</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1713729074132111</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.40518931149451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.406056600904151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.570307117660377</v>
+        <v>4.568899830365524</v>
       </c>
       <c r="C13">
-        <v>1.111835004604956</v>
+        <v>1.111312855017104</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.134627626206349</v>
+        <v>0.1351735091170063</v>
       </c>
       <c r="F13">
-        <v>3.40631158306968</v>
+        <v>3.402051094739477</v>
       </c>
       <c r="G13">
-        <v>2.754075859479386</v>
+        <v>0.9116990438992474</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.834908772102011</v>
       </c>
       <c r="I13">
-        <v>0.171768483401447</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1707811505680503</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.396814573340279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.397678497667769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.480222057813535</v>
+        <v>4.478863023274585</v>
       </c>
       <c r="C14">
-        <v>1.090370161882475</v>
+        <v>1.089865016939598</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1321004314799232</v>
+        <v>0.1326363934507349</v>
       </c>
       <c r="F14">
-        <v>3.339514267658927</v>
+        <v>3.335337636325846</v>
       </c>
       <c r="G14">
-        <v>2.702361212106965</v>
+        <v>0.8938717343087603</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.801254300877901</v>
       </c>
       <c r="I14">
-        <v>0.1698459801263645</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.168876459598895</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.36958557994825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.370438431570292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.425268068461207</v>
+        <v>4.423938064932088</v>
       </c>
       <c r="C15">
-        <v>1.077276678806072</v>
+        <v>1.076781793497361</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.130556460431098</v>
+        <v>0.1310863634197723</v>
       </c>
       <c r="F15">
-        <v>3.298805507800211</v>
+        <v>3.294679906176242</v>
       </c>
       <c r="G15">
-        <v>2.670913537245937</v>
+        <v>0.8830283723862209</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.780791781518261</v>
       </c>
       <c r="I15">
-        <v>0.1686873614593551</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1677286797621456</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.352969129244116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.353815125115986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.113579848842846</v>
+        <v>4.112408756135267</v>
       </c>
       <c r="C16">
-        <v>1.003017737480775</v>
+        <v>1.002579432398278</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1217665370049019</v>
+        <v>0.1222619753390433</v>
       </c>
       <c r="F16">
-        <v>3.068500260112074</v>
+        <v>3.064662353081502</v>
       </c>
       <c r="G16">
-        <v>2.494003985395523</v>
+        <v>0.8219904094444388</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.665720746452749</v>
       </c>
       <c r="I16">
-        <v>0.1623214145795977</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1614238276701769</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.258636541190278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.259442211361282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.925017063761629</v>
+        <v>3.923937406807113</v>
       </c>
       <c r="C17">
-        <v>0.9580933015913899</v>
+        <v>0.9576879135909451</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1164222721033141</v>
+        <v>0.1168967789535529</v>
       </c>
       <c r="F17">
-        <v>2.9296834063137</v>
+        <v>2.926018169680646</v>
       </c>
       <c r="G17">
-        <v>2.388212096862787</v>
+        <v>0.7854562512725778</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.596944359163459</v>
       </c>
       <c r="I17">
-        <v>0.1586427546391995</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1577818211981281</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.201496287161483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.202276378978169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.817445764282638</v>
+        <v>3.816416695487931</v>
       </c>
       <c r="C18">
-        <v>0.9324633969695242</v>
+        <v>0.932076349970572</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1133646739088618</v>
+        <v>0.1138272125045887</v>
       </c>
       <c r="F18">
-        <v>2.850674621871747</v>
+        <v>2.847107445705603</v>
       </c>
       <c r="G18">
-        <v>2.32828952341815</v>
+        <v>0.764750545673536</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.55800110644546</v>
       </c>
       <c r="I18">
-        <v>0.1566036522262877</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1557635276799125</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.168874864739493</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.169639967289804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.781168072105856</v>
+        <v>3.780155806930395</v>
       </c>
       <c r="C19">
-        <v>0.9238195124113702</v>
+        <v>0.9234385795714104</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1123320942041417</v>
+        <v>0.1127905921355534</v>
       </c>
       <c r="F19">
-        <v>2.824060528544919</v>
+        <v>2.820526351599625</v>
       </c>
       <c r="G19">
-        <v>2.308152692115129</v>
+        <v>0.7577903952188194</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.544916541514226</v>
       </c>
       <c r="I19">
-        <v>0.1559258492060032</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1550927259646464</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.157869581358071</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.158629563905173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.944996391648431</v>
+        <v>3.943907213233558</v>
       </c>
       <c r="C20">
-        <v>0.9628534227502143</v>
+        <v>0.9624445933715151</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1169894628918371</v>
+        <v>0.11746619044116</v>
       </c>
       <c r="F20">
-        <v>2.944372715543551</v>
+        <v>2.940689230927603</v>
       </c>
       <c r="G20">
-        <v>2.399376252528327</v>
+        <v>0.7893129389275515</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.604200930303108</v>
       </c>
       <c r="I20">
-        <v>0.1590262686842046</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1581614623471559</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.207553176200094</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.208336020235841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.50663461925501</v>
+        <v>4.505261522655701</v>
       </c>
       <c r="C21">
-        <v>1.096663434170267</v>
+        <v>1.096153327555157</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1328418858492491</v>
+        <v>0.1333807580722741</v>
       </c>
       <c r="F21">
-        <v>3.359090761165277</v>
+        <v>3.354889569840594</v>
       </c>
       <c r="G21">
-        <v>2.717502815326881</v>
+        <v>0.8990919570865969</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.811107460947653</v>
       </c>
       <c r="I21">
-        <v>0.1704066700139357</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.169431932729708</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.377570301253883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.378426420713254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.883556453962456</v>
+        <v>4.881974907723986</v>
       </c>
       <c r="C22">
-        <v>1.186486562368486</v>
+        <v>1.185903460295805</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.143377975410317</v>
+        <v>0.1439582444922998</v>
       </c>
       <c r="F22">
-        <v>3.63917787026017</v>
+        <v>3.634623743393632</v>
       </c>
       <c r="G22">
-        <v>2.935448440932262</v>
+        <v>0.9741831500456186</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.952983307420126</v>
       </c>
       <c r="I22">
-        <v>0.1786753947789848</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1776256856792529</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.491399082528844</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.492299894319842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.681379039626847</v>
+        <v>4.679911118941732</v>
       </c>
       <c r="C23">
-        <v>1.138302417610703</v>
+        <v>1.137758981275709</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1377370083221869</v>
+        <v>0.1382951037776756</v>
       </c>
       <c r="F23">
-        <v>3.488777621483592</v>
+        <v>3.484413383486185</v>
       </c>
       <c r="G23">
-        <v>2.818114161573774</v>
+        <v>0.9337675368589942</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.876590727147374</v>
       </c>
       <c r="I23">
-        <v>0.1741782863564509</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1731689147353421</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.430369782862769</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.431247074820817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.935961154390156</v>
+        <v>3.934876286741201</v>
       </c>
       <c r="C24">
-        <v>0.9607007612967209</v>
+        <v>0.960293489566908</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1167329898798108</v>
+        <v>0.117208713248651</v>
       </c>
       <c r="F24">
-        <v>2.937729207458517</v>
+        <v>2.934053976489224</v>
       </c>
       <c r="G24">
-        <v>2.394326157537165</v>
+        <v>0.7875684077206131</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.600918386614708</v>
       </c>
       <c r="I24">
-        <v>0.1588526473938181</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.157989592807052</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.204814148188895</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.205595748823548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.164940586599812</v>
+        <v>3.16419406519492</v>
       </c>
       <c r="C25">
-        <v>0.7769341705930799</v>
+        <v>0.7766516741928342</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09468543145919384</v>
+        <v>0.09507495137758681</v>
       </c>
       <c r="F25">
-        <v>2.374582192310626</v>
+        <v>2.371603402430836</v>
       </c>
       <c r="G25">
-        <v>1.971881889756162</v>
+        <v>0.6413896083985691</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.326599308940899</v>
       </c>
       <c r="I25">
-        <v>0.1451990785038255</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.144483659170163</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9706276379472243</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.9712956449494641</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.616424850917269</v>
+        <v>3.374848386299675</v>
       </c>
       <c r="C2">
-        <v>0.6459385686443966</v>
+        <v>0.5038516191096392</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07915938590760163</v>
+        <v>0.02883932826062496</v>
       </c>
       <c r="F2">
-        <v>1.977137665163738</v>
+        <v>2.428476939099738</v>
       </c>
       <c r="G2">
-        <v>0.541022479180171</v>
+        <v>0.0008155274289201959</v>
       </c>
       <c r="H2">
-        <v>1.139294858851969</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1363816543412604</v>
+        <v>0.08261175137277377</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2345400733735516</v>
       </c>
       <c r="M2">
-        <v>0.8042232110721486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.862166804515724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.253913001292403</v>
+        <v>2.934869787644743</v>
       </c>
       <c r="C3">
-        <v>0.5592676641318519</v>
+        <v>0.4372195712196003</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06854901927159318</v>
+        <v>0.02844758712235862</v>
       </c>
       <c r="F3">
-        <v>1.719071516530633</v>
+        <v>2.248223976661436</v>
       </c>
       <c r="G3">
-        <v>0.4764423250313712</v>
+        <v>0.0008245239838102326</v>
       </c>
       <c r="H3">
-        <v>1.01939079468012</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1317887538373945</v>
+        <v>0.08450873544498094</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2088757868071838</v>
       </c>
       <c r="M3">
-        <v>0.6934037920891356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.720623809449819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.034623498228939</v>
+        <v>2.669136590836899</v>
       </c>
       <c r="C4">
-        <v>0.506745133208625</v>
+        <v>0.3968049716377777</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06210277077025594</v>
+        <v>0.0282251922938821</v>
       </c>
       <c r="F4">
-        <v>1.564328384614811</v>
+        <v>2.142367399062508</v>
       </c>
       <c r="G4">
-        <v>0.4381762128259652</v>
+        <v>0.0008301894818958697</v>
       </c>
       <c r="H4">
-        <v>0.9486359846392389</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1293414190464475</v>
+        <v>0.08583462013644905</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1933521115222021</v>
       </c>
       <c r="M4">
-        <v>0.6262673692040295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.637942041726362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.945956456125799</v>
+        <v>2.561814642844467</v>
       </c>
       <c r="C5">
-        <v>0.4854831507889799</v>
+        <v>0.3804367919514959</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05949067634609762</v>
+        <v>0.02813877202847515</v>
       </c>
       <c r="F5">
-        <v>1.502086908108325</v>
+        <v>2.100336245625329</v>
       </c>
       <c r="G5">
-        <v>0.4228895867316993</v>
+        <v>0.0008325356396768962</v>
       </c>
       <c r="H5">
-        <v>0.9204430826125503</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1284285269937939</v>
+        <v>0.0864126966225065</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1870793400210076</v>
       </c>
       <c r="M5">
-        <v>0.5990996476464971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.605212902114587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.931271692757548</v>
+        <v>2.54404832253465</v>
       </c>
       <c r="C6">
-        <v>0.4819602473593818</v>
+        <v>0.3777243125715586</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05905776649472472</v>
+        <v>0.02812466667900315</v>
       </c>
       <c r="F6">
-        <v>1.491797946880453</v>
+        <v>2.0934208935453</v>
       </c>
       <c r="G6">
-        <v>0.4203686600271368</v>
+        <v>0.0008329275280113719</v>
       </c>
       <c r="H6">
-        <v>0.9157981203288017</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.128281785721942</v>
+        <v>0.08651089134694701</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1860408111549816</v>
       </c>
       <c r="M6">
-        <v>0.5945989754943568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.599833776873353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.033425055562276</v>
+        <v>2.667685477168163</v>
       </c>
       <c r="C7">
-        <v>0.5064578556344941</v>
+        <v>0.3965838454999187</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06206748629477943</v>
+        <v>0.02822401019719667</v>
       </c>
       <c r="F7">
-        <v>1.563485809411802</v>
+        <v>2.141796206399817</v>
       </c>
       <c r="G7">
-        <v>0.4379688606696845</v>
+        <v>0.0008302209691883741</v>
       </c>
       <c r="H7">
-        <v>0.9482532742920711</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1293287772985217</v>
+        <v>0.08584226680348195</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1932673062436123</v>
       </c>
       <c r="M7">
-        <v>0.6259002495071684</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.637496864522063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.490662766587491</v>
+        <v>3.222136590438026</v>
       </c>
       <c r="C8">
-        <v>0.6158894752301478</v>
+        <v>0.4807583617308353</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07548517386621967</v>
+        <v>0.02870026410171711</v>
       </c>
       <c r="F8">
-        <v>1.887313669840239</v>
+        <v>2.365259036857879</v>
       </c>
       <c r="G8">
-        <v>0.5184413225057369</v>
+        <v>0.0008186012005509455</v>
       </c>
       <c r="H8">
-        <v>1.097306069004532</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1347147591485616</v>
+        <v>0.08323065044279332</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2256388227985013</v>
       </c>
       <c r="M8">
-        <v>0.7658008864168551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.812423736618541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.420218439151995</v>
+        <v>4.351711179046788</v>
       </c>
       <c r="C9">
-        <v>0.8376804162753047</v>
+        <v>0.6509955187589185</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1024625481701591</v>
+        <v>0.02979690160270021</v>
       </c>
       <c r="F9">
-        <v>2.557573673378755</v>
+        <v>2.846988740714153</v>
       </c>
       <c r="G9">
-        <v>0.6893416010605478</v>
+        <v>0.000796847254530892</v>
       </c>
       <c r="H9">
-        <v>1.416413121882329</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1487096275669728</v>
+        <v>0.07952699433704424</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2912649327352597</v>
       </c>
       <c r="M9">
-        <v>1.049229881431899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.193915656626899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.134040508678652</v>
+        <v>5.21886570821988</v>
       </c>
       <c r="C10">
-        <v>1.007731747878097</v>
+        <v>0.7811646424655407</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1228764962708411</v>
+        <v>0.03073335124994303</v>
       </c>
       <c r="F10">
-        <v>3.080600680238945</v>
+        <v>3.235704206981012</v>
       </c>
       <c r="G10">
-        <v>0.8262028166714117</v>
+        <v>0.0007813517696246259</v>
       </c>
       <c r="H10">
-        <v>1.673655654191933</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1618502288123231</v>
+        <v>0.07789203496153974</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3412401613473861</v>
       </c>
       <c r="M10">
-        <v>1.265999972932967</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.505378737600481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.468346528613438</v>
+        <v>5.624435637840065</v>
       </c>
       <c r="C11">
-        <v>1.087359939568984</v>
+        <v>0.8420008042104996</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1323397444127075</v>
+        <v>0.03119667604485032</v>
       </c>
       <c r="F11">
-        <v>3.327550561796158</v>
+        <v>3.422229414652918</v>
       </c>
       <c r="G11">
-        <v>0.891793680887119</v>
+        <v>0.0007743715664080145</v>
       </c>
       <c r="H11">
-        <v>1.797332352021428</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.168655862663087</v>
+        <v>0.07744328100600129</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3644737815629497</v>
       </c>
       <c r="M11">
-        <v>1.367255920943677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.655852813208497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.596600331857189</v>
+        <v>5.779899935060143</v>
       </c>
       <c r="C12">
-        <v>1.11791170705493</v>
+        <v>0.8653213070701895</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1359531167333863</v>
+        <v>0.03137841988575296</v>
       </c>
       <c r="F12">
-        <v>3.422591843503739</v>
+        <v>3.494462347207133</v>
       </c>
       <c r="G12">
-        <v>0.9171966843369148</v>
+        <v>0.0007717347021167901</v>
       </c>
       <c r="H12">
-        <v>1.845290323338787</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1713729074132111</v>
+        <v>0.07732168304989173</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3733547148585785</v>
       </c>
       <c r="M12">
-        <v>1.406056600904151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.714292690908081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.568899830365524</v>
+        <v>5.746329109422959</v>
       </c>
       <c r="C13">
-        <v>1.111312855017104</v>
+        <v>0.8602853482601347</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1351735091170063</v>
+        <v>0.03133898154243475</v>
       </c>
       <c r="F13">
-        <v>3.402051094739477</v>
+        <v>3.478830960525215</v>
       </c>
       <c r="G13">
-        <v>0.9116990438992474</v>
+        <v>0.0007723023749373625</v>
       </c>
       <c r="H13">
-        <v>1.834908772102011</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1707811505680503</v>
+        <v>0.07734561720160471</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3714381704847654</v>
       </c>
       <c r="M13">
-        <v>1.397678497667769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.701638343735937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.478863023274585</v>
+        <v>5.637186230075713</v>
       </c>
       <c r="C14">
-        <v>1.089865016939598</v>
+        <v>0.8439134076633366</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1326363934507349</v>
+        <v>0.03121149615935082</v>
       </c>
       <c r="F14">
-        <v>3.335337636325846</v>
+        <v>3.428138719419223</v>
       </c>
       <c r="G14">
-        <v>0.8938717343087603</v>
+        <v>0.0007741545237465175</v>
       </c>
       <c r="H14">
-        <v>1.801254300877901</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.168876459598895</v>
+        <v>0.07743227109054018</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3652026922692642</v>
       </c>
       <c r="M14">
-        <v>1.370438431570292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.660630249240583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.423938064932088</v>
+        <v>5.570587628890166</v>
       </c>
       <c r="C15">
-        <v>1.076781793497361</v>
+        <v>0.833923609759438</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1310863634197723</v>
+        <v>0.03113425770652967</v>
       </c>
       <c r="F15">
-        <v>3.294679906176242</v>
+        <v>3.397303189343404</v>
       </c>
       <c r="G15">
-        <v>0.8830283723862209</v>
+        <v>0.00077528973804597</v>
       </c>
       <c r="H15">
-        <v>1.780791781518261</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1677286797621456</v>
+        <v>0.0774918354335874</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3613944249326835</v>
       </c>
       <c r="M15">
-        <v>1.353815125115986</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.63570781569355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.112408756135267</v>
+        <v>5.1926077789999</v>
       </c>
       <c r="C16">
-        <v>1.002579432398278</v>
+        <v>0.7772255933206225</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1222619753390433</v>
+        <v>0.03070389813523322</v>
       </c>
       <c r="F16">
-        <v>3.064662353081502</v>
+        <v>3.223726411489508</v>
       </c>
       <c r="G16">
-        <v>0.8219904094444388</v>
+        <v>0.0007818090374468978</v>
       </c>
       <c r="H16">
-        <v>1.665720746452749</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1614238276701769</v>
+        <v>0.0779277829654248</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3397327534457162</v>
       </c>
       <c r="M16">
-        <v>1.259442211361282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.495737790368764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.923937406807113</v>
+        <v>4.963764275354833</v>
       </c>
       <c r="C17">
-        <v>0.9576879135909451</v>
+        <v>0.7428918322852383</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1168967789535529</v>
+        <v>0.03045005173646587</v>
       </c>
       <c r="F17">
-        <v>2.926018169680646</v>
+        <v>3.119863975074651</v>
       </c>
       <c r="G17">
-        <v>0.7854562512725778</v>
+        <v>0.0007858236834747512</v>
       </c>
       <c r="H17">
-        <v>1.596944359163459</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1577818211981281</v>
+        <v>0.07827470448404128</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3265793924775551</v>
       </c>
       <c r="M17">
-        <v>1.202276378978169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.412251918086753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.816416695487931</v>
+        <v>4.833164619319462</v>
       </c>
       <c r="C18">
-        <v>0.932076349970572</v>
+        <v>0.7232931985051891</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1138272125045887</v>
+        <v>0.03030749482181383</v>
       </c>
       <c r="F18">
-        <v>2.847107445705603</v>
+        <v>3.061023926118708</v>
       </c>
       <c r="G18">
-        <v>0.764750545673536</v>
+        <v>0.0007881395103356827</v>
       </c>
       <c r="H18">
-        <v>1.55800110644546</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1557635276799125</v>
+        <v>0.07850160709506326</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3190602174896213</v>
       </c>
       <c r="M18">
-        <v>1.169639967289804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.365047076079534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.780155806930395</v>
+        <v>4.789113738000708</v>
       </c>
       <c r="C19">
-        <v>0.9234385795714104</v>
+        <v>0.7166816637081013</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1127905921355534</v>
+        <v>0.03025979445128257</v>
       </c>
       <c r="F19">
-        <v>2.820526351599625</v>
+        <v>3.041250257658675</v>
       </c>
       <c r="G19">
-        <v>0.7577903952188194</v>
+        <v>0.0007889248607630109</v>
       </c>
       <c r="H19">
-        <v>1.544916541514226</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1550927259646464</v>
+        <v>0.07858296643951235</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3165219913782664</v>
       </c>
       <c r="M19">
-        <v>1.158629563905173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.34919862889717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.943907213233558</v>
+        <v>4.988017005495692</v>
       </c>
       <c r="C20">
-        <v>0.9624445933715151</v>
+        <v>0.746530935421049</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.11746619044116</v>
+        <v>0.03047671103558347</v>
       </c>
       <c r="F20">
-        <v>2.940689230927603</v>
+        <v>3.130825876872763</v>
       </c>
       <c r="G20">
-        <v>0.7893129389275515</v>
+        <v>0.0007853956471458521</v>
       </c>
       <c r="H20">
-        <v>1.604200930303108</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1581614623471559</v>
+        <v>0.07823490225228369</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3279747240030275</v>
       </c>
       <c r="M20">
-        <v>1.208336020235841</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.42105355691703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.505261522655701</v>
+        <v>5.669190515782248</v>
       </c>
       <c r="C21">
-        <v>1.096153327555157</v>
+        <v>0.8487141224632637</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1333807580722741</v>
+        <v>0.03124876265017873</v>
       </c>
       <c r="F21">
-        <v>3.354889569840594</v>
+        <v>3.442983060558532</v>
       </c>
       <c r="G21">
-        <v>0.8990919570865969</v>
+        <v>0.0007736103597546317</v>
       </c>
       <c r="H21">
-        <v>1.811107460947653</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.169431932729708</v>
+        <v>0.07740545507450847</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3670318594178354</v>
       </c>
       <c r="M21">
-        <v>1.378426420713254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.672634043360247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.881974907723986</v>
+        <v>6.125521354041894</v>
       </c>
       <c r="C22">
-        <v>1.185903460295805</v>
+        <v>0.9171761785125909</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1439582444922998</v>
+        <v>0.03179058989604755</v>
       </c>
       <c r="F22">
-        <v>3.634623743393632</v>
+        <v>3.65643790051115</v>
       </c>
       <c r="G22">
-        <v>0.9741831500456186</v>
+        <v>0.0007659432311517286</v>
       </c>
       <c r="H22">
-        <v>1.952983307420126</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1776256856792529</v>
+        <v>0.07714856526373026</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3930471595098339</v>
       </c>
       <c r="M22">
-        <v>1.492299894319842</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.845669725693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.679911118941732</v>
+        <v>5.880843065626209</v>
       </c>
       <c r="C23">
-        <v>1.137758981275709</v>
+        <v>0.8804644651335138</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1382951037776756</v>
+        <v>0.03149764352580675</v>
       </c>
       <c r="F23">
-        <v>3.484413383486185</v>
+        <v>3.5415735477049</v>
       </c>
       <c r="G23">
-        <v>0.9337675368589942</v>
+        <v>0.0007700333856337505</v>
       </c>
       <c r="H23">
-        <v>1.876590727147374</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1731689147353421</v>
+        <v>0.0772573646251189</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3791135121663984</v>
       </c>
       <c r="M23">
-        <v>1.431247074820817</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.752457328091367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.934876286741201</v>
+        <v>4.977049360043168</v>
       </c>
       <c r="C24">
-        <v>0.960293489566908</v>
+        <v>0.7448852635569381</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.117208713248651</v>
+        <v>0.03046464789710113</v>
       </c>
       <c r="F24">
-        <v>2.934053976489224</v>
+        <v>3.125867300623753</v>
       </c>
       <c r="G24">
-        <v>0.7875684077206131</v>
+        <v>0.000785589138050608</v>
       </c>
       <c r="H24">
-        <v>1.600918386614708</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.157989592807052</v>
+        <v>0.07825281176684484</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3273437619113224</v>
       </c>
       <c r="M24">
-        <v>1.205595748823548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.417071882543624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.16419406519492</v>
+        <v>4.040501959526125</v>
       </c>
       <c r="C25">
-        <v>0.7766516741928342</v>
+        <v>0.6042025479506776</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09507495137758681</v>
+        <v>0.02947988572996074</v>
       </c>
       <c r="F25">
-        <v>2.371603402430836</v>
+        <v>2.711213602695778</v>
       </c>
       <c r="G25">
-        <v>0.6413896083985691</v>
+        <v>0.0008026354652489672</v>
       </c>
       <c r="H25">
-        <v>1.326599308940899</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.144483659170163</v>
+        <v>0.08035606442661702</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2732380939577723</v>
       </c>
       <c r="M25">
-        <v>0.9712956449494641</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.085851255180984</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.374848386299675</v>
+        <v>1.086868871820769</v>
       </c>
       <c r="C2">
-        <v>0.5038516191096392</v>
+        <v>0.1525365257344191</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02883932826062496</v>
+        <v>0.7677685410329644</v>
       </c>
       <c r="F2">
-        <v>2.428476939099738</v>
+        <v>2.204377083905058</v>
       </c>
       <c r="G2">
-        <v>0.0008155274289201959</v>
+        <v>0.5715628626317653</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4273164459712007</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08261175137277377</v>
+        <v>0.03922930694138316</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.143301677146383</v>
       </c>
       <c r="L2">
-        <v>0.2345400733735516</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.7951132902934415</v>
       </c>
       <c r="O2">
-        <v>1.862166804515724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.934869787644743</v>
+        <v>0.9423357323552466</v>
       </c>
       <c r="C3">
-        <v>0.4372195712196003</v>
+        <v>0.133019358726969</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02844758712235862</v>
+        <v>0.6695345614712949</v>
       </c>
       <c r="F3">
-        <v>2.248223976661436</v>
+        <v>1.994704613028475</v>
       </c>
       <c r="G3">
-        <v>0.0008245239838102326</v>
+        <v>0.5477215434385556</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4242497136434622</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08450873544498094</v>
+        <v>0.03821105719339712</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.990280712282896</v>
       </c>
       <c r="L3">
-        <v>0.2088757868071838</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.8446774093043956</v>
       </c>
       <c r="O3">
-        <v>1.720623809449819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.669136590836899</v>
+        <v>0.8542644920467239</v>
       </c>
       <c r="C4">
-        <v>0.3968049716377777</v>
+        <v>0.1210939957901331</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0282251922938821</v>
+        <v>0.6100405126817776</v>
       </c>
       <c r="F4">
-        <v>2.142367399062508</v>
+        <v>1.869885740243433</v>
       </c>
       <c r="G4">
-        <v>0.0008301894818958697</v>
+        <v>0.534628022247162</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4232582819994946</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08583462013644905</v>
+        <v>0.03768877507701873</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8969686064050109</v>
       </c>
       <c r="L4">
-        <v>0.1933521115222021</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.876446425768691</v>
       </c>
       <c r="O4">
-        <v>1.637942041726362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.561814642844467</v>
+        <v>0.8185192770682477</v>
       </c>
       <c r="C5">
-        <v>0.3804367919514959</v>
+        <v>0.1162454068814895</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02813877202847515</v>
+        <v>0.5859778435001317</v>
       </c>
       <c r="F5">
-        <v>2.100336245625329</v>
+        <v>1.819923616103821</v>
       </c>
       <c r="G5">
-        <v>0.0008325356396768962</v>
+        <v>0.5296557558987587</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4230672301705312</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0864126966225065</v>
+        <v>0.03750022497617778</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8590786389048617</v>
       </c>
       <c r="L5">
-        <v>0.1870793400210076</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.8897184730592738</v>
       </c>
       <c r="O5">
-        <v>1.605212902114587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.54404832253465</v>
+        <v>0.8125918503461094</v>
       </c>
       <c r="C6">
-        <v>0.3777243125715586</v>
+        <v>0.1154408731689074</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02812466667900315</v>
+        <v>0.581992526864255</v>
       </c>
       <c r="F6">
-        <v>2.0934208935453</v>
+        <v>1.811679624572847</v>
       </c>
       <c r="G6">
-        <v>0.0008329275280113719</v>
+        <v>0.5288513617049091</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4230480535594552</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08651089134694701</v>
+        <v>0.03747033828374668</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8527944839750887</v>
       </c>
       <c r="L6">
-        <v>0.1860408111549816</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.8919416859905187</v>
       </c>
       <c r="O6">
-        <v>1.599833776873353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.667685477168163</v>
+        <v>0.853781865795014</v>
       </c>
       <c r="C7">
-        <v>0.3965838454999187</v>
+        <v>0.1210285656275403</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02822401019719667</v>
+        <v>0.6097152915057791</v>
       </c>
       <c r="F7">
-        <v>2.141796206399817</v>
+        <v>1.869208385205468</v>
       </c>
       <c r="G7">
-        <v>0.0008302209691883741</v>
+        <v>0.5345595249742559</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.423254857452406</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08584226680348195</v>
+        <v>0.03768613593650372</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8964570940716499</v>
       </c>
       <c r="L7">
-        <v>0.1932673062436123</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.876624110568744</v>
       </c>
       <c r="O7">
-        <v>1.637496864522063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.222136590438026</v>
+        <v>1.036878875190752</v>
       </c>
       <c r="C8">
-        <v>0.4807583617308353</v>
+        <v>0.1457926907662994</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02870026410171711</v>
+        <v>0.7337111805892391</v>
       </c>
       <c r="F8">
-        <v>2.365259036857879</v>
+        <v>2.131216251061076</v>
       </c>
       <c r="G8">
-        <v>0.0008186012005509455</v>
+        <v>0.5630060872938998</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4260670183727626</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08323065044279332</v>
+        <v>0.03885585744554376</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.090390097266351</v>
       </c>
       <c r="L8">
-        <v>0.2256388227985013</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.8119193262193392</v>
       </c>
       <c r="O8">
-        <v>1.812423736618541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.351711179046788</v>
+        <v>1.402479176042021</v>
       </c>
       <c r="C9">
-        <v>0.6509955187589185</v>
+        <v>0.1949934020714608</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02979690160270021</v>
+        <v>0.9846279293996645</v>
       </c>
       <c r="F9">
-        <v>2.846988740714153</v>
+        <v>2.680208503667188</v>
       </c>
       <c r="G9">
-        <v>0.000796847254530892</v>
+        <v>0.6322666267439416</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.4391999511801146</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07952699433704424</v>
+        <v>0.04204409235921247</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.47709216917724</v>
       </c>
       <c r="L9">
-        <v>0.2912649327352597</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6961240841787131</v>
       </c>
       <c r="O9">
-        <v>2.193915656626899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.21886570821988</v>
+        <v>1.676920606893873</v>
       </c>
       <c r="C10">
-        <v>0.7811646424655407</v>
+        <v>0.231801070611354</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03073335124994303</v>
+        <v>1.175612671467476</v>
       </c>
       <c r="F10">
-        <v>3.235704206981012</v>
+        <v>3.111233549752512</v>
       </c>
       <c r="G10">
-        <v>0.0007813517696246259</v>
+        <v>0.6932016039500866</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.4543127975347971</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07789203496153974</v>
+        <v>0.04504929701200666</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.767080224802299</v>
       </c>
       <c r="L10">
-        <v>0.3412401613473861</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6185357126033999</v>
       </c>
       <c r="O10">
-        <v>2.505378737600481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.624435637840065</v>
+        <v>1.803490361234566</v>
       </c>
       <c r="C11">
-        <v>0.8420008042104996</v>
+        <v>0.2487565342097753</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03119667604485032</v>
+        <v>1.264414132219144</v>
       </c>
       <c r="F11">
-        <v>3.422229414652918</v>
+        <v>3.314871827507176</v>
       </c>
       <c r="G11">
-        <v>0.0007743715664080145</v>
+        <v>0.723554027949092</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.4625755941628711</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07744328100600129</v>
+        <v>0.04658934952466964</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.900766002018088</v>
       </c>
       <c r="L11">
-        <v>0.3644737815629497</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5850419145352781</v>
       </c>
       <c r="O11">
-        <v>2.655852813208497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.779899935060143</v>
+        <v>1.851708202082932</v>
       </c>
       <c r="C12">
-        <v>0.8653213070701895</v>
+        <v>0.2552137570483097</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03137841988575296</v>
+        <v>1.298361633455784</v>
       </c>
       <c r="F12">
-        <v>3.494462347207133</v>
+        <v>3.393214935639975</v>
       </c>
       <c r="G12">
-        <v>0.0007717347021167901</v>
+        <v>0.7354677087864872</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.465922639715771</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07732168304989173</v>
+        <v>0.04720008670463116</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.95168802379257</v>
       </c>
       <c r="L12">
-        <v>0.3733547148585785</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.572634319566184</v>
       </c>
       <c r="O12">
-        <v>2.714292690908081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.746329109422959</v>
+        <v>1.84131010387614</v>
       </c>
       <c r="C13">
-        <v>0.8602853482601347</v>
+        <v>0.2538213479238465</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03133898154243475</v>
+        <v>1.291035433297992</v>
       </c>
       <c r="F13">
-        <v>3.478830960525215</v>
+        <v>3.37628523317872</v>
       </c>
       <c r="G13">
-        <v>0.0007723023749373625</v>
+        <v>0.7328825112385857</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.4651917795481921</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07734561720160471</v>
+        <v>0.04706728261367843</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.94070705421808</v>
       </c>
       <c r="L13">
-        <v>0.3714381704847654</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.5752939690699783</v>
       </c>
       <c r="O13">
-        <v>2.701638343735937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.637186230075713</v>
+        <v>1.807451241645254</v>
       </c>
       <c r="C14">
-        <v>0.8439134076633366</v>
+        <v>0.2492870036676038</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03121149615935082</v>
+        <v>1.267200324825268</v>
       </c>
       <c r="F14">
-        <v>3.428138719419223</v>
+        <v>3.321291650526547</v>
       </c>
       <c r="G14">
-        <v>0.0007741545237465175</v>
+        <v>0.7245255083697657</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.4628464741316094</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07743227109054018</v>
+        <v>0.04663902675477161</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.904949146933291</v>
       </c>
       <c r="L14">
-        <v>0.3652026922692642</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.5840155059567937</v>
       </c>
       <c r="O14">
-        <v>2.660630249240583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.570587628890166</v>
+        <v>1.786750566798133</v>
       </c>
       <c r="C15">
-        <v>0.833923609759438</v>
+        <v>0.2465145410017158</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03113425770652967</v>
+        <v>1.252643734622424</v>
       </c>
       <c r="F15">
-        <v>3.397303189343404</v>
+        <v>3.287771105566719</v>
       </c>
       <c r="G15">
-        <v>0.00077528973804597</v>
+        <v>0.7194625744442362</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.4614388900143069</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0774918354335874</v>
+        <v>0.04638037985712273</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.88308659072095</v>
       </c>
       <c r="L15">
-        <v>0.3613944249326835</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.5893941361125083</v>
       </c>
       <c r="O15">
-        <v>2.63570781569355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.1926077789999</v>
+        <v>1.668687070013249</v>
       </c>
       <c r="C16">
-        <v>0.7772255933206225</v>
+        <v>0.2306977577411828</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03070389813523322</v>
+        <v>1.169851607915632</v>
       </c>
       <c r="F16">
-        <v>3.223726411489508</v>
+        <v>3.09808932296383</v>
       </c>
       <c r="G16">
-        <v>0.0007818090374468978</v>
+        <v>0.6912744227077496</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.453802276961909</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0779277829654248</v>
+        <v>0.04495235477715198</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.758382785042073</v>
       </c>
       <c r="L16">
-        <v>0.3397327534457162</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.6207622577337943</v>
       </c>
       <c r="O16">
-        <v>2.495737790368764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.963764275354833</v>
+        <v>1.596728452714387</v>
       </c>
       <c r="C17">
-        <v>0.7428918322852383</v>
+        <v>0.2210530151278078</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03045005173646587</v>
+        <v>1.119583321915286</v>
       </c>
       <c r="F17">
-        <v>3.119863975074651</v>
+        <v>2.983759453512761</v>
       </c>
       <c r="G17">
-        <v>0.0007858236834747512</v>
+        <v>0.6746844175437872</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.449485583054738</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07827470448404128</v>
+        <v>0.0441224360900847</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.68236392585797</v>
       </c>
       <c r="L17">
-        <v>0.3265793924775551</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.6404784307084039</v>
       </c>
       <c r="O17">
-        <v>2.412251918086753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.833164619319462</v>
+        <v>1.555499480322908</v>
       </c>
       <c r="C18">
-        <v>0.7232931985051891</v>
+        <v>0.2155251152706086</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03030749482181383</v>
+        <v>1.090848299476505</v>
       </c>
       <c r="F18">
-        <v>3.061023926118708</v>
+        <v>2.918702467333873</v>
       </c>
       <c r="G18">
-        <v>0.0007881395103356827</v>
+        <v>0.6653874092707355</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.4471321630108207</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07850160709506326</v>
+        <v>0.04366119453147377</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.638803517644817</v>
       </c>
       <c r="L18">
-        <v>0.3190602174896213</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.6519871349846156</v>
       </c>
       <c r="O18">
-        <v>2.365047076079534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.789113738000708</v>
+        <v>1.541566314912501</v>
       </c>
       <c r="C19">
-        <v>0.7166816637081013</v>
+        <v>0.2136566354916312</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03025979445128257</v>
+        <v>1.081148415497779</v>
       </c>
       <c r="F19">
-        <v>3.041250257658675</v>
+        <v>2.896791847465153</v>
       </c>
       <c r="G19">
-        <v>0.0007889248607630109</v>
+        <v>0.6622805058039347</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.4463570279542637</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07858296643951235</v>
+        <v>0.04350771473716364</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.624081547986606</v>
       </c>
       <c r="L19">
-        <v>0.3165219913782664</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.6559122364694936</v>
       </c>
       <c r="O19">
-        <v>2.34919862889717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.988017005495692</v>
+        <v>1.604371757819678</v>
       </c>
       <c r="C20">
-        <v>0.746530935421049</v>
+        <v>0.2220776536315583</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03047671103558347</v>
+        <v>1.124915744182701</v>
       </c>
       <c r="F20">
-        <v>3.130825876872763</v>
+        <v>2.995856369429447</v>
       </c>
       <c r="G20">
-        <v>0.0007853956471458521</v>
+        <v>0.6764247955905489</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.4499315784195659</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07823490225228369</v>
+        <v>0.04420909687784302</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.690439024226436</v>
       </c>
       <c r="L20">
-        <v>0.3279747240030275</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6383620567573711</v>
       </c>
       <c r="O20">
-        <v>2.42105355691703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.669190515782248</v>
+        <v>1.817388234853155</v>
       </c>
       <c r="C21">
-        <v>0.8487141224632637</v>
+        <v>0.2506178061678952</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03124876265017873</v>
+        <v>1.274192206144861</v>
       </c>
       <c r="F21">
-        <v>3.442983060558532</v>
+        <v>3.337410019185342</v>
       </c>
       <c r="G21">
-        <v>0.0007736103597546317</v>
+        <v>0.7269684190326586</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.4635292715597217</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07740545507450847</v>
+        <v>0.04676404544388291</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.915443650472781</v>
       </c>
       <c r="L21">
-        <v>0.3670318594178354</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.581446153705242</v>
       </c>
       <c r="O21">
-        <v>2.672634043360247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.125521354041894</v>
+        <v>1.958310772010861</v>
       </c>
       <c r="C22">
-        <v>0.9171761785125909</v>
+        <v>0.2694868558026542</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03179058989604755</v>
+        <v>1.373644044921733</v>
       </c>
       <c r="F22">
-        <v>3.65643790051115</v>
+        <v>3.567879594276491</v>
       </c>
       <c r="G22">
-        <v>0.0007659432311517286</v>
+        <v>0.7624710007996924</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4736973209764272</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07714856526373026</v>
+        <v>0.04859588927027403</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.064258274841507</v>
       </c>
       <c r="L22">
-        <v>0.3930471595098339</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5458646701756322</v>
       </c>
       <c r="O22">
-        <v>2.845669725693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.880843065626209</v>
+        <v>1.882927429923427</v>
       </c>
       <c r="C23">
-        <v>0.8804644651335138</v>
+        <v>0.2593940848732359</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03149764352580675</v>
+        <v>1.320375873031281</v>
       </c>
       <c r="F23">
-        <v>3.5415735477049</v>
+        <v>3.444159897422452</v>
       </c>
       <c r="G23">
-        <v>0.0007700333856337505</v>
+        <v>0.7432819774440986</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.4681466262716469</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0772573646251189</v>
+        <v>0.04760241766403439</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.984656385697861</v>
       </c>
       <c r="L23">
-        <v>0.3791135121663984</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5647013480932461</v>
       </c>
       <c r="O23">
-        <v>2.752457328091367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.977049360043168</v>
+        <v>1.600915783433294</v>
       </c>
       <c r="C24">
-        <v>0.7448852635569381</v>
+        <v>0.2216143620970854</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03046464789710113</v>
+        <v>1.122504445761891</v>
       </c>
       <c r="F24">
-        <v>3.125867300623753</v>
+        <v>2.990385268756341</v>
       </c>
       <c r="G24">
-        <v>0.000785589138050608</v>
+        <v>0.6756372236902592</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.4497295456537529</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07825281176684484</v>
+        <v>0.04416986824204372</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.686787827461387</v>
       </c>
       <c r="L24">
-        <v>0.3273437619113224</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6393183298983374</v>
       </c>
       <c r="O24">
-        <v>2.417071882543624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.040501959526125</v>
+        <v>1.302692462821312</v>
       </c>
       <c r="C25">
-        <v>0.6042025479506776</v>
+        <v>0.1815885096199992</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02947988572996074</v>
+        <v>0.9157316405677705</v>
       </c>
       <c r="F25">
-        <v>2.711213602695778</v>
+        <v>2.527314601747634</v>
       </c>
       <c r="G25">
-        <v>0.0008026354652489672</v>
+        <v>0.6119068946346289</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.4347510432395154</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08035606442661702</v>
+        <v>0.04107431504026238</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.371599808620999</v>
       </c>
       <c r="L25">
-        <v>0.2732380939577723</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.7261912379119213</v>
       </c>
       <c r="O25">
-        <v>2.085851255180984</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.086868871820769</v>
+        <v>0.4672152491505415</v>
       </c>
       <c r="C2">
-        <v>0.1525365257344191</v>
+        <v>0.04465201330235402</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7677685410329644</v>
+        <v>0.537108540994808</v>
       </c>
       <c r="F2">
-        <v>2.204377083905058</v>
+        <v>2.560859243357569</v>
       </c>
       <c r="G2">
-        <v>0.5715628626317653</v>
+        <v>0.84491862659074</v>
       </c>
       <c r="H2">
-        <v>0.4273164459712007</v>
+        <v>0.9063570786317854</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03922930694138316</v>
+        <v>0.06869674885786026</v>
       </c>
       <c r="K2">
-        <v>1.143301677146383</v>
+        <v>0.4350942793186618</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7951132902934415</v>
+        <v>1.626256284582072</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9423357323552466</v>
+        <v>0.4274980773417099</v>
       </c>
       <c r="C3">
-        <v>0.133019358726969</v>
+        <v>0.03890564994279089</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6695345614712949</v>
+        <v>0.5144342463180038</v>
       </c>
       <c r="F3">
-        <v>1.994704613028475</v>
+        <v>2.526115842956088</v>
       </c>
       <c r="G3">
-        <v>0.5477215434385556</v>
+        <v>0.8459506997002819</v>
       </c>
       <c r="H3">
-        <v>0.4242497136434622</v>
+        <v>0.9117455477261416</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03821105719339712</v>
+        <v>0.06898881152527991</v>
       </c>
       <c r="K3">
-        <v>0.990280712282896</v>
+        <v>0.3922885727566552</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8446774093043956</v>
+        <v>1.646021725941028</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8542644920467239</v>
+        <v>0.4032828181369155</v>
       </c>
       <c r="C4">
-        <v>0.1210939957901331</v>
+        <v>0.03536863920284361</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6100405126817776</v>
+        <v>0.500781382872745</v>
       </c>
       <c r="F4">
-        <v>1.869885740243433</v>
+        <v>2.506312281921367</v>
       </c>
       <c r="G4">
-        <v>0.534628022247162</v>
+        <v>0.847173483273238</v>
       </c>
       <c r="H4">
-        <v>0.4232582819994946</v>
+        <v>0.9154916115074059</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03768877507701873</v>
+        <v>0.06921040242070831</v>
       </c>
       <c r="K4">
-        <v>0.8969686064050109</v>
+        <v>0.3661267193897402</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.876446425768691</v>
+        <v>1.658768168530665</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8185192770682477</v>
+        <v>0.3934581660613787</v>
       </c>
       <c r="C5">
-        <v>0.1162454068814895</v>
+        <v>0.03392508530556881</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5859778435001317</v>
+        <v>0.4952853012332383</v>
       </c>
       <c r="F5">
-        <v>1.819923616103821</v>
+        <v>2.498625926132618</v>
       </c>
       <c r="G5">
-        <v>0.5296557558987587</v>
+        <v>0.8478195481917226</v>
       </c>
       <c r="H5">
-        <v>0.4230672301705312</v>
+        <v>0.9171281187653193</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03750022497617778</v>
+        <v>0.06931130819503295</v>
       </c>
       <c r="K5">
-        <v>0.8590786389048617</v>
+        <v>0.3554961473354297</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8897184730592738</v>
+        <v>1.664115819386534</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8125918503461094</v>
+        <v>0.3918294090601933</v>
       </c>
       <c r="C6">
-        <v>0.1154408731689074</v>
+        <v>0.03368525181383575</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.581992526864255</v>
+        <v>0.49437675839836</v>
       </c>
       <c r="F6">
-        <v>1.811679624572847</v>
+        <v>2.497372769405558</v>
       </c>
       <c r="G6">
-        <v>0.5288513617049091</v>
+        <v>0.8479357412677331</v>
       </c>
       <c r="H6">
-        <v>0.4230480535594552</v>
+        <v>0.9174064988107915</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03747033828374668</v>
+        <v>0.06932870344663655</v>
       </c>
       <c r="K6">
-        <v>0.8527944839750887</v>
+        <v>0.3537328017572179</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8919416859905187</v>
+        <v>1.665013052766056</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.853781865795014</v>
+        <v>0.4031501440055933</v>
       </c>
       <c r="C7">
-        <v>0.1210285656275403</v>
+        <v>0.03534917981103547</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6097152915057791</v>
+        <v>0.5007069873744427</v>
       </c>
       <c r="F7">
-        <v>1.869208385205468</v>
+        <v>2.506207068197938</v>
       </c>
       <c r="G7">
-        <v>0.5345595249742559</v>
+        <v>0.8471815984927531</v>
       </c>
       <c r="H7">
-        <v>0.423254857452406</v>
+        <v>0.9155132368957908</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03768613593650372</v>
+        <v>0.06921172035766077</v>
       </c>
       <c r="K7">
-        <v>0.8964570940716499</v>
+        <v>0.3659832276783561</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.876624110568744</v>
+        <v>1.658839667977778</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.036878875190752</v>
+        <v>0.45348533383671</v>
       </c>
       <c r="C8">
-        <v>0.1457926907662994</v>
+        <v>0.04267247501186944</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7337111805892391</v>
+        <v>0.5292344735509147</v>
       </c>
       <c r="F8">
-        <v>2.131216251061076</v>
+        <v>2.548561910007706</v>
       </c>
       <c r="G8">
-        <v>0.5630060872938998</v>
+        <v>0.8451520012447133</v>
       </c>
       <c r="H8">
-        <v>0.4260670183727626</v>
+        <v>0.9081241763912971</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03885585744554376</v>
+        <v>0.06878866709404008</v>
       </c>
       <c r="K8">
-        <v>1.090390097266351</v>
+        <v>0.4203098368181486</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8119193262193392</v>
+        <v>1.63294465753568</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.402479176042021</v>
+        <v>0.55354782724919</v>
       </c>
       <c r="C9">
-        <v>0.1949934020714608</v>
+        <v>0.05696498608108413</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.9846279293996645</v>
+        <v>0.5873226712328119</v>
       </c>
       <c r="F9">
-        <v>2.680208503667188</v>
+        <v>2.643792738976884</v>
       </c>
       <c r="G9">
-        <v>0.6322666267439416</v>
+        <v>0.8458634775144986</v>
       </c>
       <c r="H9">
-        <v>0.4391999511801146</v>
+        <v>0.8971090591974473</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04204409235921247</v>
+        <v>0.06829544232022045</v>
       </c>
       <c r="K9">
-        <v>1.47709216917724</v>
+        <v>0.5278029892918141</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6961240841787131</v>
+        <v>1.587012004902398</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.676920606893873</v>
+        <v>0.6278934740698503</v>
       </c>
       <c r="C10">
-        <v>0.231801070611354</v>
+        <v>0.06742603684119786</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.175612671467476</v>
+        <v>0.6313266061686278</v>
       </c>
       <c r="F10">
-        <v>3.111233549752512</v>
+        <v>2.721248199289533</v>
       </c>
       <c r="G10">
-        <v>0.6932016039500866</v>
+        <v>0.8492719617082258</v>
       </c>
       <c r="H10">
-        <v>0.4543127975347971</v>
+        <v>0.8911397569834065</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04504929701200666</v>
+        <v>0.0681396666176397</v>
       </c>
       <c r="K10">
-        <v>1.767080224802299</v>
+        <v>0.6073693197584191</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6185357126033999</v>
+        <v>1.556225101995263</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.803490361234566</v>
+        <v>0.6618966803484909</v>
       </c>
       <c r="C11">
-        <v>0.2487565342097753</v>
+        <v>0.07217694238701711</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.264414132219144</v>
+        <v>0.6516374888983876</v>
       </c>
       <c r="F11">
-        <v>3.314871827507176</v>
+        <v>2.758126517966758</v>
       </c>
       <c r="G11">
-        <v>0.723554027949092</v>
+        <v>0.8514548540032933</v>
       </c>
       <c r="H11">
-        <v>0.4625755941628711</v>
+        <v>0.8888864585131273</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04658934952466964</v>
+        <v>0.06811399923369166</v>
       </c>
       <c r="K11">
-        <v>1.900766002018088</v>
+        <v>0.6436964247957633</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5850419145352781</v>
+        <v>1.542863076085673</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.851708202082932</v>
+        <v>0.6747990514069215</v>
       </c>
       <c r="C12">
-        <v>0.2552137570483097</v>
+        <v>0.07397487269162184</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.298361633455784</v>
+        <v>0.659371108588175</v>
       </c>
       <c r="F12">
-        <v>3.393214935639975</v>
+        <v>2.772328749703462</v>
       </c>
       <c r="G12">
-        <v>0.7354677087864872</v>
+        <v>0.8523728255790246</v>
       </c>
       <c r="H12">
-        <v>0.465922639715771</v>
+        <v>0.888099746567022</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04720008670463116</v>
+        <v>0.06811080537648806</v>
       </c>
       <c r="K12">
-        <v>1.95168802379257</v>
+        <v>0.657471507123546</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.572634319566184</v>
+        <v>1.537895835471433</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.84131010387614</v>
+        <v>0.6720191378553579</v>
       </c>
       <c r="C13">
-        <v>0.2538213479238465</v>
+        <v>0.07358770670845161</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.291035433297992</v>
+        <v>0.6577036500733868</v>
       </c>
       <c r="F13">
-        <v>3.37628523317872</v>
+        <v>2.769259480627397</v>
       </c>
       <c r="G13">
-        <v>0.7328825112385857</v>
+        <v>0.8521710540191805</v>
       </c>
       <c r="H13">
-        <v>0.4651917795481921</v>
+        <v>0.888266216961469</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04706728261367843</v>
+        <v>0.06811120256532277</v>
       </c>
       <c r="K13">
-        <v>1.94070705421808</v>
+        <v>0.6545039636006607</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5752939690699783</v>
+        <v>1.538961495032197</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.807451241645254</v>
+        <v>0.6629576444549343</v>
       </c>
       <c r="C14">
-        <v>0.2492870036676038</v>
+        <v>0.07232488193980657</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.267200324825268</v>
+        <v>0.6522728891917922</v>
       </c>
       <c r="F14">
-        <v>3.321291650526547</v>
+        <v>2.759290184897196</v>
       </c>
       <c r="G14">
-        <v>0.7245255083697657</v>
+        <v>0.8515285426888539</v>
       </c>
       <c r="H14">
-        <v>0.4628464741316094</v>
+        <v>0.8888204006179024</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04663902675477161</v>
+        <v>0.06811360553215096</v>
       </c>
       <c r="K14">
-        <v>1.904949146933291</v>
+        <v>0.6448293334467792</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5840155059567937</v>
+        <v>1.542452559873869</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.786750566798133</v>
+        <v>0.6574106099192818</v>
       </c>
       <c r="C15">
-        <v>0.2465145410017158</v>
+        <v>0.0715512175205788</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.252643734622424</v>
+        <v>0.6489519085770183</v>
       </c>
       <c r="F15">
-        <v>3.287771105566719</v>
+        <v>2.753214622051473</v>
       </c>
       <c r="G15">
-        <v>0.7194625744442362</v>
+        <v>0.8511468960758179</v>
       </c>
       <c r="H15">
-        <v>0.4614388900143069</v>
+        <v>0.8891685257351867</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04638037985712273</v>
+        <v>0.06811592807060407</v>
       </c>
       <c r="K15">
-        <v>1.88308659072095</v>
+        <v>0.6389057855454325</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5893941361125083</v>
+        <v>1.544603011878404</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.668687070013249</v>
+        <v>0.6256749481014481</v>
       </c>
       <c r="C16">
-        <v>0.2306977577411828</v>
+        <v>0.06711539530499522</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.169851607915632</v>
+        <v>0.6300051569403706</v>
       </c>
       <c r="F16">
-        <v>3.09808932296383</v>
+        <v>2.718871260336385</v>
       </c>
       <c r="G16">
-        <v>0.6912744227077496</v>
+        <v>0.8491420655161193</v>
       </c>
       <c r="H16">
-        <v>0.453802276961909</v>
+        <v>0.891296324189824</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04495235477715198</v>
+        <v>0.06814225577548072</v>
       </c>
       <c r="K16">
-        <v>1.758382785042073</v>
+        <v>0.6049978981441768</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6207622577337943</v>
+        <v>1.557111298836647</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.596728452714387</v>
+        <v>0.6062528604953172</v>
       </c>
       <c r="C17">
-        <v>0.2210530151278078</v>
+        <v>0.06439214282241323</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.119583321915286</v>
+        <v>0.6184571630959823</v>
       </c>
       <c r="F17">
-        <v>2.983759453512761</v>
+        <v>2.698224273509084</v>
       </c>
       <c r="G17">
-        <v>0.6746844175437872</v>
+        <v>0.8480744306005192</v>
       </c>
       <c r="H17">
-        <v>0.449485583054738</v>
+        <v>0.8927201053080722</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0441224360900847</v>
+        <v>0.0681700016390856</v>
       </c>
       <c r="K17">
-        <v>1.68236392585797</v>
+        <v>0.584230180434588</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6404784307084039</v>
+        <v>1.564949574621941</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.555499480322908</v>
+        <v>0.595099027124121</v>
       </c>
       <c r="C18">
-        <v>0.2155251152706086</v>
+        <v>0.06282505848400888</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.090848299476505</v>
+        <v>0.6118426570160267</v>
       </c>
       <c r="F18">
-        <v>2.918702467333873</v>
+        <v>2.686503307477437</v>
       </c>
       <c r="G18">
-        <v>0.6653874092707355</v>
+        <v>0.8475198499634189</v>
       </c>
       <c r="H18">
-        <v>0.4471321630108207</v>
+        <v>0.8935825215451558</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04366119453147377</v>
+        <v>0.06819021275512327</v>
       </c>
       <c r="K18">
-        <v>1.638803517644817</v>
+        <v>0.5722975720593979</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6519871349846156</v>
+        <v>1.569518462442002</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.541566314912501</v>
+        <v>0.5913254981339264</v>
       </c>
       <c r="C19">
-        <v>0.2136566354916312</v>
+        <v>0.06229434334782979</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.081148415497779</v>
+        <v>0.6096078335726958</v>
       </c>
       <c r="F19">
-        <v>2.896791847465153</v>
+        <v>2.682561321562559</v>
       </c>
       <c r="G19">
-        <v>0.6622805058039347</v>
+        <v>0.8473422838343083</v>
       </c>
       <c r="H19">
-        <v>0.4463570279542637</v>
+        <v>0.8938819880300883</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04350771473716364</v>
+        <v>0.06819778543949795</v>
       </c>
       <c r="K19">
-        <v>1.624081547986606</v>
+        <v>0.5682595369829926</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6559122364694936</v>
+        <v>1.571075797733329</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.604371757819678</v>
+        <v>0.6083185924396446</v>
       </c>
       <c r="C20">
-        <v>0.2220776536315583</v>
+        <v>0.06468211445834982</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.124915744182701</v>
+        <v>0.6196836096984129</v>
       </c>
       <c r="F20">
-        <v>2.995856369429447</v>
+        <v>2.700406169985257</v>
       </c>
       <c r="G20">
-        <v>0.6764247955905489</v>
+        <v>0.8481819215980693</v>
       </c>
       <c r="H20">
-        <v>0.4499315784195659</v>
+        <v>0.892564039054534</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04420909687784302</v>
+        <v>0.0681666077413503</v>
       </c>
       <c r="K20">
-        <v>1.690439024226436</v>
+        <v>0.5864396539442112</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6383620567573711</v>
+        <v>1.564108911912938</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.817388234853155</v>
+        <v>0.6656185182588104</v>
       </c>
       <c r="C21">
-        <v>0.2506178061678952</v>
+        <v>0.07269583498512588</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.274192206144861</v>
+        <v>0.6538668852341658</v>
       </c>
       <c r="F21">
-        <v>3.337410019185342</v>
+        <v>2.762211963694313</v>
       </c>
       <c r="G21">
-        <v>0.7269684190326586</v>
+        <v>0.8517147810184724</v>
       </c>
       <c r="H21">
-        <v>0.4635292715597217</v>
+        <v>0.8886558160965166</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04676404544388291</v>
+        <v>0.06811272239984945</v>
       </c>
       <c r="K21">
-        <v>1.915443650472781</v>
+        <v>0.647670498164814</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.581446153705242</v>
+        <v>1.541424632946592</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.958310772010861</v>
+        <v>0.703219332055653</v>
       </c>
       <c r="C22">
-        <v>0.2694868558026542</v>
+        <v>0.07792665140526367</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.373644044921733</v>
+        <v>0.6764544343770638</v>
       </c>
       <c r="F22">
-        <v>3.567879594276491</v>
+        <v>2.803988700391557</v>
       </c>
       <c r="G22">
-        <v>0.7624710007996924</v>
+        <v>0.8545564101248857</v>
       </c>
       <c r="H22">
-        <v>0.4736973209764272</v>
+        <v>0.8864895978172882</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04859588927027403</v>
+        <v>0.06811555526447322</v>
       </c>
       <c r="K22">
-        <v>2.064258274841507</v>
+        <v>0.6877978692240276</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5458646701756322</v>
+        <v>1.527139381433297</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.882927429923427</v>
+        <v>0.6831372342690827</v>
       </c>
       <c r="C23">
-        <v>0.2593940848732359</v>
+        <v>0.07513547172632684</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.320375873031281</v>
+        <v>0.6643763990048086</v>
       </c>
       <c r="F23">
-        <v>3.444159897422452</v>
+        <v>2.781564821897263</v>
       </c>
       <c r="G23">
-        <v>0.7432819774440986</v>
+        <v>0.852990895818678</v>
       </c>
       <c r="H23">
-        <v>0.4681466262716469</v>
+        <v>0.8876102095059224</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04760241766403439</v>
+        <v>0.06811055284152445</v>
       </c>
       <c r="K23">
-        <v>1.984656385697861</v>
+        <v>0.6663711789002207</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5647013480932461</v>
+        <v>1.534714192519088</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.600915783433294</v>
+        <v>0.6073846370609886</v>
       </c>
       <c r="C24">
-        <v>0.2216143620970854</v>
+        <v>0.06455102279922187</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.122504445761891</v>
+        <v>0.6191290566111292</v>
       </c>
       <c r="F24">
-        <v>2.990385268756341</v>
+        <v>2.699419269700684</v>
       </c>
       <c r="G24">
-        <v>0.6756372236902592</v>
+        <v>0.8481331404868797</v>
       </c>
       <c r="H24">
-        <v>0.4497295456537529</v>
+        <v>0.8926344599697273</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04416986824204372</v>
+        <v>0.06816812885697487</v>
       </c>
       <c r="K24">
-        <v>1.686787827461387</v>
+        <v>0.5854407290631798</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6393183298983374</v>
+        <v>1.564488780658971</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.302692462821312</v>
+        <v>0.5263328217486105</v>
       </c>
       <c r="C25">
-        <v>0.1815885096199992</v>
+        <v>0.05310559872765452</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.9157316405677705</v>
+        <v>0.5713766586307685</v>
       </c>
       <c r="F25">
-        <v>2.527314601747634</v>
+        <v>2.616720037370186</v>
       </c>
       <c r="G25">
-        <v>0.6119068946346289</v>
+        <v>0.8451660980378506</v>
       </c>
       <c r="H25">
-        <v>0.4347510432395154</v>
+        <v>0.8997164105117292</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04107431504026238</v>
+        <v>0.06839270344480752</v>
       </c>
       <c r="K25">
-        <v>1.371599808620999</v>
+        <v>0.4986199229420549</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7261912379119213</v>
+        <v>1.598918587214236</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4672152491505415</v>
+        <v>1.086868871820656</v>
       </c>
       <c r="C2">
-        <v>0.04465201330235402</v>
+        <v>0.152536525734547</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.537108540994808</v>
+        <v>0.7677685410329786</v>
       </c>
       <c r="F2">
-        <v>2.560859243357569</v>
+        <v>2.204377083905058</v>
       </c>
       <c r="G2">
-        <v>0.84491862659074</v>
+        <v>0.5715628626318079</v>
       </c>
       <c r="H2">
-        <v>0.9063570786317854</v>
+        <v>0.4273164459711865</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06869674885786026</v>
+        <v>0.03922930694138671</v>
       </c>
       <c r="K2">
-        <v>0.4350942793186618</v>
+        <v>1.143301677146354</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.626256284582072</v>
+        <v>0.7951132902934432</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4274980773417099</v>
+        <v>0.9423357323549624</v>
       </c>
       <c r="C3">
-        <v>0.03890564994279089</v>
+        <v>0.1330193587270543</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5144342463180038</v>
+        <v>0.6695345614712807</v>
       </c>
       <c r="F3">
-        <v>2.526115842956088</v>
+        <v>1.994704613028475</v>
       </c>
       <c r="G3">
-        <v>0.8459506997002819</v>
+        <v>0.5477215434385698</v>
       </c>
       <c r="H3">
-        <v>0.9117455477261416</v>
+        <v>0.4242497136434622</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06898881152527991</v>
+        <v>0.03821105719345042</v>
       </c>
       <c r="K3">
-        <v>0.3922885727566552</v>
+        <v>0.9902807122828676</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.646021725941028</v>
+        <v>0.8446774093043921</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4032828181369155</v>
+        <v>0.8542644920466103</v>
       </c>
       <c r="C4">
-        <v>0.03536863920284361</v>
+        <v>0.1210939957898916</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.500781382872745</v>
+        <v>0.6100405126817776</v>
       </c>
       <c r="F4">
-        <v>2.506312281921367</v>
+        <v>1.869885740243419</v>
       </c>
       <c r="G4">
-        <v>0.847173483273238</v>
+        <v>0.5346280222471194</v>
       </c>
       <c r="H4">
-        <v>0.9154916115074059</v>
+        <v>0.4232582819994946</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06921040242070831</v>
+        <v>0.03768877507707558</v>
       </c>
       <c r="K4">
-        <v>0.3661267193897402</v>
+        <v>0.8969686064049256</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.658768168530665</v>
+        <v>0.8764464257687159</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3934581660613787</v>
+        <v>0.8185192770681056</v>
       </c>
       <c r="C5">
-        <v>0.03392508530556881</v>
+        <v>0.1162454068813901</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4952853012332383</v>
+        <v>0.5859778435001033</v>
       </c>
       <c r="F5">
-        <v>2.498625926132618</v>
+        <v>1.819923616103836</v>
       </c>
       <c r="G5">
-        <v>0.8478195481917226</v>
+        <v>0.5296557558986876</v>
       </c>
       <c r="H5">
-        <v>0.9171281187653193</v>
+        <v>0.4230672301705454</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06931130819503295</v>
+        <v>0.03750022497617067</v>
       </c>
       <c r="K5">
-        <v>0.3554961473354297</v>
+        <v>0.8590786389048901</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.664115819386534</v>
+        <v>0.8897184730593146</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3918294090601933</v>
+        <v>0.8125918503461094</v>
       </c>
       <c r="C6">
-        <v>0.03368525181383575</v>
+        <v>0.1154408731685947</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.49437675839836</v>
+        <v>0.5819925268642692</v>
       </c>
       <c r="F6">
-        <v>2.497372769405558</v>
+        <v>1.811679624572847</v>
       </c>
       <c r="G6">
-        <v>0.8479357412677331</v>
+        <v>0.5288513617048665</v>
       </c>
       <c r="H6">
-        <v>0.9174064988107915</v>
+        <v>0.4230480535595547</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06932870344663655</v>
+        <v>0.03747033828374668</v>
       </c>
       <c r="K6">
-        <v>0.3537328017572179</v>
+        <v>0.8527944839750603</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.665013052766056</v>
+        <v>0.8919416859905107</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4031501440055933</v>
+        <v>0.853781865795014</v>
       </c>
       <c r="C7">
-        <v>0.03534917981103547</v>
+        <v>0.1210285656273271</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5007069873744427</v>
+        <v>0.6097152915058075</v>
       </c>
       <c r="F7">
-        <v>2.506207068197938</v>
+        <v>1.869208385205468</v>
       </c>
       <c r="G7">
-        <v>0.8471815984927531</v>
+        <v>0.5345595249742985</v>
       </c>
       <c r="H7">
-        <v>0.9155132368957908</v>
+        <v>0.4232548574522923</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06921172035766077</v>
+        <v>0.03768613593650727</v>
       </c>
       <c r="K7">
-        <v>0.3659832276783561</v>
+        <v>0.8964570940715362</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.658839667977778</v>
+        <v>0.8766241105687556</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.45348533383671</v>
+        <v>1.036878875190723</v>
       </c>
       <c r="C8">
-        <v>0.04267247501186944</v>
+        <v>0.1457926907663136</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5292344735509147</v>
+        <v>0.7337111805892533</v>
       </c>
       <c r="F8">
-        <v>2.548561910007706</v>
+        <v>2.131216251061076</v>
       </c>
       <c r="G8">
-        <v>0.8451520012447133</v>
+        <v>0.5630060872939282</v>
       </c>
       <c r="H8">
-        <v>0.9081241763912971</v>
+        <v>0.4260670183727484</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06878866709404008</v>
+        <v>0.03885585744555442</v>
       </c>
       <c r="K8">
-        <v>0.4203098368181486</v>
+        <v>1.090390097266237</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.63294465753568</v>
+        <v>0.8119193262194049</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.55354782724919</v>
+        <v>1.402479176041879</v>
       </c>
       <c r="C9">
-        <v>0.05696498608108413</v>
+        <v>0.1949934020708497</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5873226712328119</v>
+        <v>0.9846279293996787</v>
       </c>
       <c r="F9">
-        <v>2.643792738976884</v>
+        <v>2.680208503667217</v>
       </c>
       <c r="G9">
-        <v>0.8458634775144986</v>
+        <v>0.6322666267440127</v>
       </c>
       <c r="H9">
-        <v>0.8971090591974473</v>
+        <v>0.4391999511801146</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06829544232022045</v>
+        <v>0.04204409235916629</v>
       </c>
       <c r="K9">
-        <v>0.5278029892918141</v>
+        <v>1.477092169177268</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.587012004902398</v>
+        <v>0.6961240841787308</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6278934740698503</v>
+        <v>1.676920606893759</v>
       </c>
       <c r="C10">
-        <v>0.06742603684119786</v>
+        <v>0.231801070611354</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6313266061686278</v>
+        <v>1.175612671467462</v>
       </c>
       <c r="F10">
-        <v>2.721248199289533</v>
+        <v>3.111233549752512</v>
       </c>
       <c r="G10">
-        <v>0.8492719617082258</v>
+        <v>0.6932016039501292</v>
       </c>
       <c r="H10">
-        <v>0.8911397569834065</v>
+        <v>0.4543127975349108</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0681396666176397</v>
+        <v>0.04504929701200311</v>
       </c>
       <c r="K10">
-        <v>0.6073693197584191</v>
+        <v>1.767080224802385</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.556225101995263</v>
+        <v>0.6185357126034621</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6618966803484909</v>
+        <v>1.803490361234736</v>
       </c>
       <c r="C11">
-        <v>0.07217694238701711</v>
+        <v>0.2487565342096616</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6516374888983876</v>
+        <v>1.264414132219159</v>
       </c>
       <c r="F11">
-        <v>2.758126517966758</v>
+        <v>3.314871827507176</v>
       </c>
       <c r="G11">
-        <v>0.8514548540032933</v>
+        <v>0.7235540279491346</v>
       </c>
       <c r="H11">
-        <v>0.8888864585131273</v>
+        <v>0.4625755941628711</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06811399923369166</v>
+        <v>0.04658934952453464</v>
       </c>
       <c r="K11">
-        <v>0.6436964247957633</v>
+        <v>1.900766002018088</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.542863076085673</v>
+        <v>0.5850419145352728</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6747990514069215</v>
+        <v>1.851708202082904</v>
       </c>
       <c r="C12">
-        <v>0.07397487269162184</v>
+        <v>0.2552137570484092</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.659371108588175</v>
+        <v>1.298361633455826</v>
       </c>
       <c r="F12">
-        <v>2.772328749703462</v>
+        <v>3.393214935639975</v>
       </c>
       <c r="G12">
-        <v>0.8523728255790246</v>
+        <v>0.7354677087865582</v>
       </c>
       <c r="H12">
-        <v>0.888099746567022</v>
+        <v>0.4659226397158562</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06811080537648806</v>
+        <v>0.04720008670463827</v>
       </c>
       <c r="K12">
-        <v>0.657471507123546</v>
+        <v>1.95168802379257</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.537895835471433</v>
+        <v>0.5726343195661237</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6720191378553579</v>
+        <v>1.841310103875969</v>
       </c>
       <c r="C13">
-        <v>0.07358770670845161</v>
+        <v>0.2538213479236475</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6577036500733868</v>
+        <v>1.291035433298006</v>
       </c>
       <c r="F13">
-        <v>2.769259480627397</v>
+        <v>3.376285233178749</v>
       </c>
       <c r="G13">
-        <v>0.8521710540191805</v>
+        <v>0.7328825112385715</v>
       </c>
       <c r="H13">
-        <v>0.888266216961469</v>
+        <v>0.4651917795481637</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06811120256532277</v>
+        <v>0.04706728261366422</v>
       </c>
       <c r="K13">
-        <v>0.6545039636006607</v>
+        <v>1.940707054218052</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.538961495032197</v>
+        <v>0.5752939690699144</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6629576444549343</v>
+        <v>1.807451241645367</v>
       </c>
       <c r="C14">
-        <v>0.07232488193980657</v>
+        <v>0.2492870036673622</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6522728891917922</v>
+        <v>1.267200324825239</v>
       </c>
       <c r="F14">
-        <v>2.759290184897196</v>
+        <v>3.321291650526547</v>
       </c>
       <c r="G14">
-        <v>0.8515285426888539</v>
+        <v>0.7245255083697799</v>
       </c>
       <c r="H14">
-        <v>0.8888204006179024</v>
+        <v>0.4628464741315952</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06811360553215096</v>
+        <v>0.04663902675477516</v>
       </c>
       <c r="K14">
-        <v>0.6448293334467792</v>
+        <v>1.904949146933205</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.542452559873869</v>
+        <v>0.5840155059567955</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6574106099192818</v>
+        <v>1.78675056679819</v>
       </c>
       <c r="C15">
-        <v>0.0715512175205788</v>
+        <v>0.2465145410013747</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6489519085770183</v>
+        <v>1.252643734622396</v>
       </c>
       <c r="F15">
-        <v>2.753214622051473</v>
+        <v>3.287771105566719</v>
       </c>
       <c r="G15">
-        <v>0.8511468960758179</v>
+        <v>0.7194625744442646</v>
       </c>
       <c r="H15">
-        <v>0.8891685257351867</v>
+        <v>0.4614388900143922</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06811592807060407</v>
+        <v>0.04638037985717958</v>
       </c>
       <c r="K15">
-        <v>0.6389057855454325</v>
+        <v>1.883086590720865</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.544603011878404</v>
+        <v>0.5893941361124977</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6256749481014481</v>
+        <v>1.668687070013391</v>
       </c>
       <c r="C16">
-        <v>0.06711539530499522</v>
+        <v>0.2306977577411828</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6300051569403706</v>
+        <v>1.169851607915618</v>
       </c>
       <c r="F16">
-        <v>2.718871260336385</v>
+        <v>3.09808932296383</v>
       </c>
       <c r="G16">
-        <v>0.8491420655161193</v>
+        <v>0.6912744227077638</v>
       </c>
       <c r="H16">
-        <v>0.891296324189824</v>
+        <v>0.4538022769620369</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06814225577548072</v>
+        <v>0.04495235477707737</v>
       </c>
       <c r="K16">
-        <v>0.6049978981441768</v>
+        <v>1.758382785042045</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.557111298836647</v>
+        <v>0.6207622577337304</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6062528604953172</v>
+        <v>1.59672845271453</v>
       </c>
       <c r="C17">
-        <v>0.06439214282241323</v>
+        <v>0.2210530151280352</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6184571630959823</v>
+        <v>1.119583321915215</v>
       </c>
       <c r="F17">
-        <v>2.698224273509084</v>
+        <v>2.983759453512761</v>
       </c>
       <c r="G17">
-        <v>0.8480744306005192</v>
+        <v>0.674684417543773</v>
       </c>
       <c r="H17">
-        <v>0.8927201053080722</v>
+        <v>0.4494855830547237</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0681700016390856</v>
+        <v>0.04412243609009181</v>
       </c>
       <c r="K17">
-        <v>0.584230180434588</v>
+        <v>1.682363925858056</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.564949574621941</v>
+        <v>0.6404784307084572</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.595099027124121</v>
+        <v>1.555499480322794</v>
       </c>
       <c r="C18">
-        <v>0.06282505848400888</v>
+        <v>0.2155251152703812</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6118426570160267</v>
+        <v>1.090848299476477</v>
       </c>
       <c r="F18">
-        <v>2.686503307477437</v>
+        <v>2.918702467333873</v>
       </c>
       <c r="G18">
-        <v>0.8475198499634189</v>
+        <v>0.6653874092707781</v>
       </c>
       <c r="H18">
-        <v>0.8935825215451558</v>
+        <v>0.4471321630108207</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06819021275512327</v>
+        <v>0.04366119453151995</v>
       </c>
       <c r="K18">
-        <v>0.5722975720593979</v>
+        <v>1.638803517644703</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.569518462442002</v>
+        <v>0.6519871349846262</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5913254981339264</v>
+        <v>1.541566314912643</v>
       </c>
       <c r="C19">
-        <v>0.06229434334782979</v>
+        <v>0.2136566354916312</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6096078335726958</v>
+        <v>1.081148415497779</v>
       </c>
       <c r="F19">
-        <v>2.682561321562559</v>
+        <v>2.896791847465181</v>
       </c>
       <c r="G19">
-        <v>0.8473422838343083</v>
+        <v>0.6622805058039347</v>
       </c>
       <c r="H19">
-        <v>0.8938819880300883</v>
+        <v>0.4463570279542637</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06819778543949795</v>
+        <v>0.04350771473717074</v>
       </c>
       <c r="K19">
-        <v>0.5682595369829926</v>
+        <v>1.624081547986577</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.571075797733329</v>
+        <v>0.655912236469435</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6083185924396446</v>
+        <v>1.604371757819649</v>
       </c>
       <c r="C20">
-        <v>0.06468211445834982</v>
+        <v>0.2220776536317999</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6196836096984129</v>
+        <v>1.124915744182715</v>
       </c>
       <c r="F20">
-        <v>2.700406169985257</v>
+        <v>2.995856369429475</v>
       </c>
       <c r="G20">
-        <v>0.8481819215980693</v>
+        <v>0.6764247955905205</v>
       </c>
       <c r="H20">
-        <v>0.892564039054534</v>
+        <v>0.4499315784194522</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0681666077413503</v>
+        <v>0.04420909687785013</v>
       </c>
       <c r="K20">
-        <v>0.5864396539442112</v>
+        <v>1.690439024226521</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.564108911912938</v>
+        <v>0.6383620567573924</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6656185182588104</v>
+        <v>1.817388234852899</v>
       </c>
       <c r="C21">
-        <v>0.07269583498512588</v>
+        <v>0.2506178061675541</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6538668852341658</v>
+        <v>1.274192206144861</v>
       </c>
       <c r="F21">
-        <v>2.762211963694313</v>
+        <v>3.337410019185342</v>
       </c>
       <c r="G21">
-        <v>0.8517147810184724</v>
+        <v>0.7269684190326444</v>
       </c>
       <c r="H21">
-        <v>0.8886558160965166</v>
+        <v>0.4635292715597501</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06811272239984945</v>
+        <v>0.04676404544390422</v>
       </c>
       <c r="K21">
-        <v>0.647670498164814</v>
+        <v>1.915443650472923</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.541424632946592</v>
+        <v>0.581446153705258</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.703219332055653</v>
+        <v>1.958310772010918</v>
       </c>
       <c r="C22">
-        <v>0.07792665140526367</v>
+        <v>0.2694868558026542</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6764544343770638</v>
+        <v>1.373644044921718</v>
       </c>
       <c r="F22">
-        <v>2.803988700391557</v>
+        <v>3.567879594276462</v>
       </c>
       <c r="G22">
-        <v>0.8545564101248857</v>
+        <v>0.7624710007997209</v>
       </c>
       <c r="H22">
-        <v>0.8864895978172882</v>
+        <v>0.4736973209764272</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06811555526447322</v>
+        <v>0.04859588927026337</v>
       </c>
       <c r="K22">
-        <v>0.6877978692240276</v>
+        <v>2.064258274841535</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.527139381433297</v>
+        <v>0.545864670175682</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6831372342690827</v>
+        <v>1.882927429923541</v>
       </c>
       <c r="C23">
-        <v>0.07513547172632684</v>
+        <v>0.2593940848731364</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6643763990048086</v>
+        <v>1.320375873031296</v>
       </c>
       <c r="F23">
-        <v>2.781564821897263</v>
+        <v>3.444159897422423</v>
       </c>
       <c r="G23">
-        <v>0.852990895818678</v>
+        <v>0.7432819774440986</v>
       </c>
       <c r="H23">
-        <v>0.8876102095059224</v>
+        <v>0.4681466262716469</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06811055284152445</v>
+        <v>0.04760241766403084</v>
       </c>
       <c r="K23">
-        <v>0.6663711789002207</v>
+        <v>1.984656385697804</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.534714192519088</v>
+        <v>0.5647013480932443</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6073846370609886</v>
+        <v>1.600915783433123</v>
       </c>
       <c r="C24">
-        <v>0.06455102279922187</v>
+        <v>0.2216143620971565</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6191290566111292</v>
+        <v>1.122504445761905</v>
       </c>
       <c r="F24">
-        <v>2.699419269700684</v>
+        <v>2.990385268756313</v>
       </c>
       <c r="G24">
-        <v>0.8481331404868797</v>
+        <v>0.6756372236902592</v>
       </c>
       <c r="H24">
-        <v>0.8926344599697273</v>
+        <v>0.4497295456537529</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06816812885697487</v>
+        <v>0.04416986824198332</v>
       </c>
       <c r="K24">
-        <v>0.5854407290631798</v>
+        <v>1.686787827461472</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.564488780658971</v>
+        <v>0.6393183298983338</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5263328217486105</v>
+        <v>1.302692462821312</v>
       </c>
       <c r="C25">
-        <v>0.05310559872765452</v>
+        <v>0.181588509619985</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5713766586307685</v>
+        <v>0.9157316405677989</v>
       </c>
       <c r="F25">
-        <v>2.616720037370186</v>
+        <v>2.527314601747634</v>
       </c>
       <c r="G25">
-        <v>0.8451660980378506</v>
+        <v>0.6119068946345578</v>
       </c>
       <c r="H25">
-        <v>0.8997164105117292</v>
+        <v>0.4347510432395154</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06839270344480752</v>
+        <v>0.04107431504019488</v>
       </c>
       <c r="K25">
-        <v>0.4986199229420549</v>
+        <v>1.371599808621056</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.598918587214236</v>
+        <v>0.7261912379119142</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.086868871820656</v>
+        <v>3.409185123587122</v>
       </c>
       <c r="C2">
-        <v>0.152536525734547</v>
+        <v>0.514687772589383</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7677685410329786</v>
+        <v>0.135287282058993</v>
       </c>
       <c r="F2">
-        <v>2.204377083905058</v>
+        <v>0.8244853147382898</v>
       </c>
       <c r="G2">
-        <v>0.5715628626318079</v>
+        <v>0.2046499017251762</v>
       </c>
       <c r="H2">
-        <v>0.4273164459711865</v>
+        <v>0.0005138226674965551</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0004546991495932851</v>
       </c>
       <c r="J2">
-        <v>0.03922930694138671</v>
+        <v>0.2110628174196592</v>
       </c>
       <c r="K2">
-        <v>1.143301677146354</v>
+        <v>0.211423713460789</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.08184664844249312</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7951132902934432</v>
+        <v>0.6198065714150687</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.8248409728017805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9423357323549624</v>
+        <v>2.972356972103341</v>
       </c>
       <c r="C3">
-        <v>0.1330193587270543</v>
+        <v>0.4761074044601514</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6695345614712807</v>
+        <v>0.1290722568165883</v>
       </c>
       <c r="F3">
-        <v>1.994704613028475</v>
+        <v>0.7852007486147414</v>
       </c>
       <c r="G3">
-        <v>0.5477215434385698</v>
+        <v>0.1996667519763022</v>
       </c>
       <c r="H3">
-        <v>0.4242497136434622</v>
+        <v>0.00129125368246763</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0006563044580563115</v>
       </c>
       <c r="J3">
-        <v>0.03821105719345042</v>
+        <v>0.2134719492688717</v>
       </c>
       <c r="K3">
-        <v>0.9902807122828676</v>
+        <v>0.2220514194381273</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.07314282162765551</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8446774093043921</v>
+        <v>0.5498520776373539</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.819030130471134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8542644920466103</v>
+        <v>2.70355896940282</v>
       </c>
       <c r="C4">
-        <v>0.1210939957898916</v>
+        <v>0.4525622459496077</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6100405126817776</v>
+        <v>0.1252505276476903</v>
       </c>
       <c r="F4">
-        <v>1.869885740243419</v>
+        <v>0.7617630675502198</v>
       </c>
       <c r="G4">
-        <v>0.5346280222471194</v>
+        <v>0.1970118114157486</v>
       </c>
       <c r="H4">
-        <v>0.4232582819994946</v>
+        <v>0.001969236521127682</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0009622771191444279</v>
       </c>
       <c r="J4">
-        <v>0.03768877507707558</v>
+        <v>0.2152324299278092</v>
       </c>
       <c r="K4">
-        <v>0.8969686064049256</v>
+        <v>0.2289554692907032</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.06780396593502047</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8764464257687159</v>
+        <v>0.5070200139556675</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8169018064645428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8185192770681056</v>
+        <v>2.593849035179517</v>
       </c>
       <c r="C5">
-        <v>0.1162454068813901</v>
+        <v>0.4435752347524016</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5859778435001033</v>
+        <v>0.1236539515658066</v>
       </c>
       <c r="F5">
-        <v>1.819923616103836</v>
+        <v>0.7518268301471807</v>
       </c>
       <c r="G5">
-        <v>0.5296557558986876</v>
+        <v>0.1957165734864077</v>
       </c>
       <c r="H5">
-        <v>0.4230672301705454</v>
+        <v>0.002294937353036874</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001199771958600326</v>
       </c>
       <c r="J5">
-        <v>0.03750022497617067</v>
+        <v>0.2158529168210634</v>
       </c>
       <c r="K5">
-        <v>0.8590786389048901</v>
+        <v>0.2316660597733033</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.06571827149767984</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8897184730593146</v>
+        <v>0.4899404804944538</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8153772078170221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8125918503461094</v>
+        <v>2.575603886123872</v>
       </c>
       <c r="C6">
-        <v>0.1154408731685947</v>
+        <v>0.44279043621178</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5819925268642692</v>
+        <v>0.1233429995297151</v>
       </c>
       <c r="F6">
-        <v>1.811679624572847</v>
+        <v>0.749514968997957</v>
       </c>
       <c r="G6">
-        <v>0.5288513617048665</v>
+        <v>0.195128820786536</v>
       </c>
       <c r="H6">
-        <v>0.4230480535595547</v>
+        <v>0.002353494214552332</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001333966663173314</v>
       </c>
       <c r="J6">
-        <v>0.03747033828374668</v>
+        <v>0.2157580273849931</v>
       </c>
       <c r="K6">
-        <v>0.8527944839750603</v>
+        <v>0.2318841514521903</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.06548131480760588</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8919416859905107</v>
+        <v>0.487533149695949</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8139191746131189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.853781865795014</v>
+        <v>2.70202945331539</v>
       </c>
       <c r="C7">
-        <v>0.1210285656273271</v>
+        <v>0.4543760250930404</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6097152915058075</v>
+        <v>0.1251044604261757</v>
       </c>
       <c r="F7">
-        <v>1.869208385205468</v>
+        <v>0.7597951602212376</v>
       </c>
       <c r="G7">
-        <v>0.5345595249742985</v>
+        <v>0.1959611145038309</v>
       </c>
       <c r="H7">
-        <v>0.4232548574522923</v>
+        <v>0.001977384462860554</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001201704729886011</v>
       </c>
       <c r="J7">
-        <v>0.03768613593650727</v>
+        <v>0.2146901513200348</v>
       </c>
       <c r="K7">
-        <v>0.8964570940715362</v>
+        <v>0.2283461520621692</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0680753228137192</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8766241105687556</v>
+        <v>0.5079583691869374</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8135371698443379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.036878875190723</v>
+        <v>3.25860844231039</v>
       </c>
       <c r="C8">
-        <v>0.1457926907663136</v>
+        <v>0.503954243226076</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7337111805892533</v>
+        <v>0.1329818896293524</v>
       </c>
       <c r="F8">
-        <v>2.131216251061076</v>
+        <v>0.8083737286994079</v>
       </c>
       <c r="G8">
-        <v>0.5630060872939282</v>
+        <v>0.2014825314788027</v>
       </c>
       <c r="H8">
-        <v>0.4260670183727484</v>
+        <v>0.0007417397815493443</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007679474731858704</v>
       </c>
       <c r="J8">
-        <v>0.03885585744555442</v>
+        <v>0.2111119757444015</v>
       </c>
       <c r="K8">
-        <v>1.090390097266237</v>
+        <v>0.2141706559753942</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07924475616751181</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8119193262194049</v>
+        <v>0.5972148727054503</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.8181296470135635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.402479176041879</v>
+        <v>4.346131502833259</v>
       </c>
       <c r="C9">
-        <v>0.1949934020708497</v>
+        <v>0.5989372817267622</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.9846279293996787</v>
+        <v>0.148623188876023</v>
       </c>
       <c r="F9">
-        <v>2.680208503667217</v>
+        <v>0.9126998066895027</v>
       </c>
       <c r="G9">
-        <v>0.6322666267440127</v>
+        <v>0.2176172998284684</v>
       </c>
       <c r="H9">
-        <v>0.4391999511801146</v>
+        <v>1.868697938633979E-05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001120874299940233</v>
       </c>
       <c r="J9">
-        <v>0.04204409235916629</v>
+        <v>0.2074102876711308</v>
       </c>
       <c r="K9">
-        <v>1.477092169177268</v>
+        <v>0.1906473200045173</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.100673664016135</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6961240841787308</v>
+        <v>0.7712953461642087</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.8452708391756829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.676920606893759</v>
+        <v>5.143246675988507</v>
       </c>
       <c r="C10">
-        <v>0.231801070611354</v>
+        <v>0.676801928149672</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.175612671467462</v>
+        <v>0.1559798250760309</v>
       </c>
       <c r="F10">
-        <v>3.111233549752512</v>
+        <v>0.9764874490601159</v>
       </c>
       <c r="G10">
-        <v>0.6932016039501292</v>
+        <v>0.2271915813598326</v>
       </c>
       <c r="H10">
-        <v>0.4543127975349108</v>
+        <v>0.0008128549901025295</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002585919623810717</v>
       </c>
       <c r="J10">
-        <v>0.04504929701200311</v>
+        <v>0.2038308280256302</v>
       </c>
       <c r="K10">
-        <v>1.767080224802385</v>
+        <v>0.1730366576204503</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1196109617533523</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6185357126034621</v>
+        <v>0.881462629650116</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.8585398475150043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.803490361234736</v>
+        <v>5.502283806954324</v>
       </c>
       <c r="C11">
-        <v>0.2487565342096616</v>
+        <v>0.7720384006151164</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.264414132219159</v>
+        <v>0.127354167744695</v>
       </c>
       <c r="F11">
-        <v>3.314871827507176</v>
+        <v>0.8684432297152114</v>
       </c>
       <c r="G11">
-        <v>0.7235540279491346</v>
+        <v>0.1949713839633276</v>
       </c>
       <c r="H11">
-        <v>0.4625755941628711</v>
+        <v>0.01942104031857284</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003627514081737004</v>
       </c>
       <c r="J11">
-        <v>0.04658934952453464</v>
+        <v>0.1834155434225906</v>
       </c>
       <c r="K11">
-        <v>1.900766002018088</v>
+        <v>0.1482077347736812</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1575202460648342</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5850419145352728</v>
+        <v>0.7713241411071863</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.7476674461670143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.851708202082904</v>
+        <v>5.636978237095548</v>
       </c>
       <c r="C12">
-        <v>0.2552137570484092</v>
+        <v>0.8370253260544303</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.298361633455826</v>
+        <v>0.1066932476141691</v>
       </c>
       <c r="F12">
-        <v>3.393214935639975</v>
+        <v>0.7711714127396974</v>
       </c>
       <c r="G12">
-        <v>0.7354677087865582</v>
+        <v>0.1687208523640678</v>
       </c>
       <c r="H12">
-        <v>0.4659226397158562</v>
+        <v>0.05801652147020775</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003753839776917012</v>
       </c>
       <c r="J12">
-        <v>0.04720008670463827</v>
+        <v>0.1683098720560281</v>
       </c>
       <c r="K12">
-        <v>1.95168802379257</v>
+        <v>0.1344192834451334</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.189047593579275</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5726343195661237</v>
+        <v>0.660532688635783</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.6604464154925722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.841310103875969</v>
+        <v>5.60541643136014</v>
       </c>
       <c r="C13">
-        <v>0.2538213479236475</v>
+        <v>0.884846673720233</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.291035433298006</v>
+        <v>0.09077553644520542</v>
       </c>
       <c r="F13">
-        <v>3.376285233178749</v>
+        <v>0.6738170082617714</v>
       </c>
       <c r="G13">
-        <v>0.7328825112385715</v>
+        <v>0.143788314003622</v>
       </c>
       <c r="H13">
-        <v>0.4651917795481637</v>
+        <v>0.113579358652359</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003488132323382409</v>
       </c>
       <c r="J13">
-        <v>0.04706728261366422</v>
+        <v>0.1554586092257892</v>
       </c>
       <c r="K13">
-        <v>1.940707054218052</v>
+        <v>0.1270850500890766</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2176129762558077</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5752939690699144</v>
+        <v>0.5453510800135177</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.580648624891154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.807451241645367</v>
+        <v>5.507941001494146</v>
       </c>
       <c r="C14">
-        <v>0.2492870036673622</v>
+        <v>0.9113890603855452</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.267200324825239</v>
+        <v>0.08246857985881384</v>
       </c>
       <c r="F14">
-        <v>3.321291650526547</v>
+        <v>0.6064436425827253</v>
       </c>
       <c r="G14">
-        <v>0.7245255083697799</v>
+        <v>0.1270382895957596</v>
       </c>
       <c r="H14">
-        <v>0.4628464741315952</v>
+        <v>0.1627654262623111</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003217723348112322</v>
       </c>
       <c r="J14">
-        <v>0.04663902675477516</v>
+        <v>0.1474997043013104</v>
       </c>
       <c r="K14">
-        <v>1.904949146933205</v>
+        <v>0.1251199377281773</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2366826756837241</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5840155059567955</v>
+        <v>0.4647717261515965</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5284090959465857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.78675056679819</v>
+        <v>5.44870482424875</v>
       </c>
       <c r="C15">
-        <v>0.2465145410013747</v>
+        <v>0.9145298400216006</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.252643734622396</v>
+        <v>0.08081860029719223</v>
       </c>
       <c r="F15">
-        <v>3.287771105566719</v>
+        <v>0.5890310771293485</v>
       </c>
       <c r="G15">
-        <v>0.7194625744442646</v>
+        <v>0.1227976875925307</v>
       </c>
       <c r="H15">
-        <v>0.4614388900143922</v>
+        <v>0.1752031287107769</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.00318259500002771</v>
       </c>
       <c r="J15">
-        <v>0.04638037985717958</v>
+        <v>0.1458242112333465</v>
       </c>
       <c r="K15">
-        <v>1.883086590720865</v>
+        <v>0.1256027501860995</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2402942942165822</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5893941361124977</v>
+        <v>0.443785303549987</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.5158746188151611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.668687070013391</v>
+        <v>5.110984438215667</v>
       </c>
       <c r="C16">
-        <v>0.2306977577411828</v>
+        <v>0.8704592871866907</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.169851607915618</v>
+        <v>0.08115257627529715</v>
       </c>
       <c r="F16">
-        <v>3.09808932296383</v>
+        <v>0.5816192932778321</v>
       </c>
       <c r="G16">
-        <v>0.6912744227077638</v>
+        <v>0.122981096394831</v>
       </c>
       <c r="H16">
-        <v>0.4538022769620369</v>
+        <v>0.162122684152834</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002642104873588735</v>
       </c>
       <c r="J16">
-        <v>0.04495235477707737</v>
+        <v>0.1494327423151702</v>
       </c>
       <c r="K16">
-        <v>1.758382785042045</v>
+        <v>0.1336528410062157</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2255619331950101</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6207622577337304</v>
+        <v>0.4236173491104154</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5236249109909608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.59672845271453</v>
+        <v>4.904379453403862</v>
       </c>
       <c r="C17">
-        <v>0.2210530151280352</v>
+        <v>0.8227264245491028</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.119583321915215</v>
+        <v>0.08533299578139175</v>
       </c>
       <c r="F17">
-        <v>2.983759453512761</v>
+        <v>0.6110578924158929</v>
       </c>
       <c r="G17">
-        <v>0.674684417543773</v>
+        <v>0.1319127049667372</v>
       </c>
       <c r="H17">
-        <v>0.4494855830547237</v>
+        <v>0.1241886731505275</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002418178823622164</v>
       </c>
       <c r="J17">
-        <v>0.04412243609009181</v>
+        <v>0.1564158668402342</v>
       </c>
       <c r="K17">
-        <v>1.682363925858056</v>
+        <v>0.140772594209182</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2039986737313271</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6404784307084572</v>
+        <v>0.4497925621005692</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.5570670725452089</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.555499480322794</v>
+        <v>4.786537490400917</v>
       </c>
       <c r="C18">
-        <v>0.2155251152703812</v>
+        <v>0.7660438367800282</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.090848299476477</v>
+        <v>0.09579076596956959</v>
       </c>
       <c r="F18">
-        <v>2.918702467333873</v>
+        <v>0.6793678730311186</v>
       </c>
       <c r="G18">
-        <v>0.6653874092707781</v>
+        <v>0.1507613620374642</v>
       </c>
       <c r="H18">
-        <v>0.4471321630108207</v>
+        <v>0.07133732754291344</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002115206609476949</v>
       </c>
       <c r="J18">
-        <v>0.04366119453151995</v>
+        <v>0.1677374141994861</v>
       </c>
       <c r="K18">
-        <v>1.638803517644703</v>
+        <v>0.1493324781935925</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1754752350494186</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6519871349846262</v>
+        <v>0.522209698822806</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.6206762124136702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.541566314912643</v>
+        <v>4.74814988917592</v>
       </c>
       <c r="C19">
-        <v>0.2136566354916312</v>
+        <v>0.7131870579891313</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.081148415497779</v>
+        <v>0.1141125197200985</v>
       </c>
       <c r="F19">
-        <v>2.896791847465181</v>
+        <v>0.7758868003629757</v>
       </c>
       <c r="G19">
-        <v>0.6622805058039347</v>
+        <v>0.1760785473532493</v>
       </c>
       <c r="H19">
-        <v>0.4463570279542637</v>
+        <v>0.02617879420070324</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002278852475493309</v>
       </c>
       <c r="J19">
-        <v>0.04350771473717074</v>
+        <v>0.1814945932868071</v>
       </c>
       <c r="K19">
-        <v>1.624081547986577</v>
+        <v>0.1598104248085397</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1467162179461141</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.655912236469435</v>
+        <v>0.6351972632420768</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.7031505434283218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.604371757819649</v>
+        <v>4.933800726971583</v>
       </c>
       <c r="C20">
-        <v>0.2220776536317999</v>
+        <v>0.6629112937291666</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.124915744182715</v>
+        <v>0.1535010787842452</v>
       </c>
       <c r="F20">
-        <v>2.995856369429475</v>
+        <v>0.9531506155215084</v>
       </c>
       <c r="G20">
-        <v>0.6764247955905205</v>
+        <v>0.2211657701749843</v>
       </c>
       <c r="H20">
-        <v>0.4499315784194522</v>
+        <v>0.0004982997282647617</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002852311907531657</v>
       </c>
       <c r="J20">
-        <v>0.04420909687785013</v>
+        <v>0.2029105900412134</v>
       </c>
       <c r="K20">
-        <v>1.690439024226521</v>
+        <v>0.1755745740055517</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1157277318568219</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6383620567573924</v>
+        <v>0.8553687220733082</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.8437174173879214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.817388234852899</v>
+        <v>5.545864394211264</v>
       </c>
       <c r="C21">
-        <v>0.2506178061675541</v>
+        <v>0.7123612077640473</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.274192206144861</v>
+        <v>0.165556402127514</v>
       </c>
       <c r="F21">
-        <v>3.337410019185342</v>
+        <v>1.029547561421751</v>
       </c>
       <c r="G21">
-        <v>0.7269684190326444</v>
+        <v>0.2366839342788722</v>
       </c>
       <c r="H21">
-        <v>0.4635292715597501</v>
+        <v>0.001352702729041755</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004261555509657455</v>
       </c>
       <c r="J21">
-        <v>0.04676404544390422</v>
+        <v>0.204457265328216</v>
       </c>
       <c r="K21">
-        <v>1.915443650472923</v>
+        <v>0.1665563581109772</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1255139222375661</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.581446153705258</v>
+        <v>0.9694118712609452</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.8802068859403391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.958310772010918</v>
+        <v>5.945856467606575</v>
       </c>
       <c r="C22">
-        <v>0.2694868558026542</v>
+        <v>0.7453666750821242</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.373644044921718</v>
+        <v>0.171523939744425</v>
       </c>
       <c r="F22">
-        <v>3.567879594276462</v>
+        <v>1.074599179937522</v>
       </c>
       <c r="G22">
-        <v>0.7624710007997209</v>
+        <v>0.2465492763997403</v>
       </c>
       <c r="H22">
-        <v>0.4736973209764272</v>
+        <v>0.002236989212911489</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.005134049557241838</v>
       </c>
       <c r="J22">
-        <v>0.04859588927026337</v>
+        <v>0.2053846340681318</v>
       </c>
       <c r="K22">
-        <v>2.064258274841535</v>
+        <v>0.1607868203713316</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1330417259726318</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.545864670175682</v>
+        <v>1.032831621662126</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.9032858058355231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.882927429923541</v>
+        <v>5.732440145778753</v>
       </c>
       <c r="C23">
-        <v>0.2593940848731364</v>
+        <v>0.7252981843307964</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.320375873031296</v>
+        <v>0.168480245722062</v>
       </c>
       <c r="F23">
-        <v>3.444159897422423</v>
+        <v>1.052602651487874</v>
       </c>
       <c r="G23">
-        <v>0.7432819774440986</v>
+        <v>0.2424215546927968</v>
       </c>
       <c r="H23">
-        <v>0.4681466262716469</v>
+        <v>0.001742203009541421</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.004364581459237016</v>
       </c>
       <c r="J23">
-        <v>0.04760241766403084</v>
+        <v>0.205480890810982</v>
       </c>
       <c r="K23">
-        <v>1.984656385697804</v>
+        <v>0.1645154902701851</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1286529232403666</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5647013480932443</v>
+        <v>0.9975427108790029</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.8946183603721067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.600915783433123</v>
+        <v>4.924223019724764</v>
       </c>
       <c r="C24">
-        <v>0.2216143620971565</v>
+        <v>0.6535902142767895</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.122504445761905</v>
+        <v>0.1567562317545068</v>
       </c>
       <c r="F24">
-        <v>2.990385268756313</v>
+        <v>0.9678640142051051</v>
       </c>
       <c r="G24">
-        <v>0.6756372236902592</v>
+        <v>0.2261148600529665</v>
       </c>
       <c r="H24">
-        <v>0.4497295456537529</v>
+        <v>0.000407734176105512</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002393058658039848</v>
       </c>
       <c r="J24">
-        <v>0.04416986824198332</v>
+        <v>0.2055767914529625</v>
       </c>
       <c r="K24">
-        <v>1.686787827461472</v>
+        <v>0.1784969131575025</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1126576429163677</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6393183298983338</v>
+        <v>0.8666538925594693</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.8597890857943042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.302692462821312</v>
+        <v>4.052151863346467</v>
       </c>
       <c r="C25">
-        <v>0.181588509619985</v>
+        <v>0.5767093705969444</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.9157316405677989</v>
+        <v>0.1441708307252902</v>
       </c>
       <c r="F25">
-        <v>2.527314601747634</v>
+        <v>0.8805083757576</v>
       </c>
       <c r="G25">
-        <v>0.6119068946345578</v>
+        <v>0.2109964938803088</v>
       </c>
       <c r="H25">
-        <v>0.4347510432395154</v>
+        <v>1.632009916741062E-05</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001244777786510554</v>
       </c>
       <c r="J25">
-        <v>0.04107431504019488</v>
+        <v>0.2071717557061561</v>
       </c>
       <c r="K25">
-        <v>1.371599808621056</v>
+        <v>0.1955448498005019</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09542068024098427</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7261912379119142</v>
+        <v>0.7261917825923945</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.8305552546582646</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.409185123587122</v>
+        <v>3.413359959949105</v>
       </c>
       <c r="C2">
-        <v>0.514687772589383</v>
+        <v>0.5109705866032925</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.135287282058993</v>
+        <v>0.1331476335599397</v>
       </c>
       <c r="F2">
-        <v>0.8244853147382898</v>
+        <v>0.8076772063600615</v>
       </c>
       <c r="G2">
-        <v>0.2046499017251762</v>
+        <v>0.1790082516524976</v>
       </c>
       <c r="H2">
-        <v>0.0005138226674965551</v>
+        <v>0.0004004114686665394</v>
       </c>
       <c r="I2">
-        <v>0.0004546991495932851</v>
+        <v>0.0005394311544595354</v>
       </c>
       <c r="J2">
-        <v>0.2110628174196592</v>
+        <v>0.2436170417817323</v>
       </c>
       <c r="K2">
-        <v>0.211423713460789</v>
+        <v>0.2005200945460945</v>
       </c>
       <c r="L2">
-        <v>0.08184664844249312</v>
+        <v>0.1144927571654382</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0452787702812536</v>
       </c>
       <c r="N2">
-        <v>0.6198065714150687</v>
+        <v>0.08329504042777103</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.6322390472920887</v>
       </c>
       <c r="Q2">
-        <v>0.8248409728017805</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.795434823174304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.972356972103341</v>
+        <v>2.976946835990191</v>
       </c>
       <c r="C3">
-        <v>0.4761074044601514</v>
+        <v>0.4666122507516093</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1290722568165883</v>
+        <v>0.1273575655616774</v>
       </c>
       <c r="F3">
-        <v>0.7852007486147414</v>
+        <v>0.7714744171126426</v>
       </c>
       <c r="G3">
-        <v>0.1996667519763022</v>
+        <v>0.1754824161808273</v>
       </c>
       <c r="H3">
-        <v>0.00129125368246763</v>
+        <v>0.00106108418933637</v>
       </c>
       <c r="I3">
-        <v>0.0006563044580563115</v>
+        <v>0.0005895880292343669</v>
       </c>
       <c r="J3">
-        <v>0.2134719492688717</v>
+        <v>0.2449106749744843</v>
       </c>
       <c r="K3">
-        <v>0.2220514194381273</v>
+        <v>0.2109923832974498</v>
       </c>
       <c r="L3">
-        <v>0.07314282162765551</v>
+        <v>0.1202812648038307</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04858478384405052</v>
       </c>
       <c r="N3">
-        <v>0.5498520776373539</v>
+        <v>0.07373447278806822</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.5601352393586723</v>
       </c>
       <c r="Q3">
-        <v>0.819030130471134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.7935235309400639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.70355896940282</v>
+        <v>2.708312771910016</v>
       </c>
       <c r="C4">
-        <v>0.4525622459496077</v>
+        <v>0.4396435014692486</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1252505276476903</v>
+        <v>0.1237952769851205</v>
       </c>
       <c r="F4">
-        <v>0.7617630675502198</v>
+        <v>0.74979878204595</v>
       </c>
       <c r="G4">
-        <v>0.1970118114157486</v>
+        <v>0.1737074776233314</v>
       </c>
       <c r="H4">
-        <v>0.001969236521127682</v>
+        <v>0.001646102031440999</v>
       </c>
       <c r="I4">
-        <v>0.0009622771191444279</v>
+        <v>0.0007760850262075181</v>
       </c>
       <c r="J4">
-        <v>0.2152324299278092</v>
+        <v>0.245828645272745</v>
       </c>
       <c r="K4">
-        <v>0.2289554692907032</v>
+        <v>0.2177368376324669</v>
       </c>
       <c r="L4">
-        <v>0.06780396593502047</v>
+        <v>0.1240891048755373</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05110575485991697</v>
       </c>
       <c r="N4">
-        <v>0.5070200139556675</v>
+        <v>0.06789131487994382</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.5160504464663092</v>
       </c>
       <c r="Q4">
-        <v>0.8169018064645428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.7934715147577975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.593849035179517</v>
+        <v>2.598648409994325</v>
       </c>
       <c r="C5">
-        <v>0.4435752347524016</v>
+        <v>0.4292950923559289</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1236539515658066</v>
+        <v>0.1223050124241531</v>
       </c>
       <c r="F5">
-        <v>0.7518268301471807</v>
+        <v>0.7405609081629763</v>
       </c>
       <c r="G5">
-        <v>0.1957165734864077</v>
+        <v>0.1727801191589933</v>
       </c>
       <c r="H5">
-        <v>0.002294937353036874</v>
+        <v>0.001928716448352463</v>
       </c>
       <c r="I5">
-        <v>0.001199771958600326</v>
+        <v>0.000971134416267283</v>
       </c>
       <c r="J5">
-        <v>0.2158529168210634</v>
+        <v>0.2460647595900198</v>
       </c>
       <c r="K5">
-        <v>0.2316660597733033</v>
+        <v>0.2203765443116001</v>
       </c>
       <c r="L5">
-        <v>0.06571827149767984</v>
+        <v>0.1255881464662991</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05223065719895326</v>
       </c>
       <c r="N5">
-        <v>0.4899404804944538</v>
+        <v>0.06560507495685641</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.4984730221781319</v>
       </c>
       <c r="Q5">
-        <v>0.8153772078170221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.7927438982357984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.575603886123872</v>
+        <v>2.580408408115773</v>
       </c>
       <c r="C6">
-        <v>0.44279043621178</v>
+        <v>0.4282894085298636</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1233429995297151</v>
+        <v>0.1220128126416959</v>
       </c>
       <c r="F6">
-        <v>0.749514968997957</v>
+        <v>0.7383782619057797</v>
       </c>
       <c r="G6">
-        <v>0.195128820786536</v>
+        <v>0.172269840998851</v>
       </c>
       <c r="H6">
-        <v>0.002353494214552332</v>
+        <v>0.001979672419721856</v>
       </c>
       <c r="I6">
-        <v>0.001333966663173314</v>
+        <v>0.001114727244456049</v>
       </c>
       <c r="J6">
-        <v>0.2157580273849931</v>
+        <v>0.2459004594769993</v>
       </c>
       <c r="K6">
-        <v>0.2318841514521903</v>
+        <v>0.2205941363733679</v>
       </c>
       <c r="L6">
-        <v>0.06548131480760588</v>
+        <v>0.1256998139642587</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05239480107087391</v>
       </c>
       <c r="N6">
-        <v>0.487533149695949</v>
+        <v>0.06533460999634144</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.495978519769892</v>
       </c>
       <c r="Q6">
-        <v>0.8139191746131189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.7914488967750799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.70202945331539</v>
+        <v>2.706755661599857</v>
       </c>
       <c r="C7">
-        <v>0.4543760250930404</v>
+        <v>0.4409861003990159</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1251044604261757</v>
+        <v>0.1237378496767292</v>
       </c>
       <c r="F7">
-        <v>0.7597951602212376</v>
+        <v>0.7471512582637772</v>
       </c>
       <c r="G7">
-        <v>0.1959611145038309</v>
+        <v>0.1745387365182438</v>
       </c>
       <c r="H7">
-        <v>0.001977384462860554</v>
+        <v>0.001655395631708245</v>
       </c>
       <c r="I7">
-        <v>0.001201704729886011</v>
+        <v>0.001059625109850693</v>
       </c>
       <c r="J7">
-        <v>0.2146901513200348</v>
+        <v>0.2423485642577319</v>
       </c>
       <c r="K7">
-        <v>0.2283461520621692</v>
+        <v>0.2169490385722348</v>
       </c>
       <c r="L7">
-        <v>0.0680753228137192</v>
+        <v>0.1236086445512985</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05099506660873199</v>
       </c>
       <c r="N7">
-        <v>0.5079583691869374</v>
+        <v>0.06828538209622792</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.5171931442085054</v>
       </c>
       <c r="Q7">
-        <v>0.8135371698443379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.7882658841734411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.25860844231039</v>
+        <v>3.262855137430677</v>
       </c>
       <c r="C8">
-        <v>0.503954243226076</v>
+        <v>0.4966938675488564</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1329818896293524</v>
+        <v>0.13127754110808</v>
       </c>
       <c r="F8">
-        <v>0.8083737286994079</v>
+        <v>0.7903002068159353</v>
       </c>
       <c r="G8">
-        <v>0.2014825314788027</v>
+        <v>0.1825459920077463</v>
       </c>
       <c r="H8">
-        <v>0.0007417397815493443</v>
+        <v>0.0005961137208999601</v>
       </c>
       <c r="I8">
-        <v>0.0007679474731858704</v>
+        <v>0.0008614328984748454</v>
       </c>
       <c r="J8">
-        <v>0.2111119757444015</v>
+        <v>0.2338848850914701</v>
       </c>
       <c r="K8">
-        <v>0.2141706559753942</v>
+        <v>0.2026104179526378</v>
       </c>
       <c r="L8">
-        <v>0.07924475616751181</v>
+        <v>0.115657274101201</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04598760511386635</v>
       </c>
       <c r="N8">
-        <v>0.5972148727054503</v>
+        <v>0.08082242160961783</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.6096324393814569</v>
       </c>
       <c r="Q8">
-        <v>0.8181296470135635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.7838759621618436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.346131502833259</v>
+        <v>4.3486799757938</v>
       </c>
       <c r="C9">
-        <v>0.5989372817267622</v>
+        <v>0.6063158599273777</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.148623188876023</v>
+        <v>0.145929536242523</v>
       </c>
       <c r="F9">
-        <v>0.9126998066895027</v>
+        <v>0.8854784492835108</v>
       </c>
       <c r="G9">
-        <v>0.2176172998284684</v>
+        <v>0.1966294757196678</v>
       </c>
       <c r="H9">
-        <v>1.868697938633979E-05</v>
+        <v>2.965354529971265E-05</v>
       </c>
       <c r="I9">
-        <v>0.001120874299940233</v>
+        <v>0.001370548199735033</v>
       </c>
       <c r="J9">
-        <v>0.2074102876711308</v>
+        <v>0.2295093816045437</v>
       </c>
       <c r="K9">
-        <v>0.1906473200045173</v>
+        <v>0.1789193838586272</v>
       </c>
       <c r="L9">
-        <v>0.100673664016135</v>
+        <v>0.1031033532064853</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0405020270790013</v>
       </c>
       <c r="N9">
-        <v>0.7712953461642087</v>
+        <v>0.104644488463812</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.789669698711208</v>
       </c>
       <c r="Q9">
-        <v>0.8452708391756829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.7976057152408202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.143246675988507</v>
+        <v>5.143695402692174</v>
       </c>
       <c r="C10">
-        <v>0.676801928149672</v>
+        <v>0.6921271656683246</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1559798250760309</v>
+        <v>0.1531414305231813</v>
       </c>
       <c r="F10">
-        <v>0.9764874490601159</v>
+        <v>0.9387505426945779</v>
       </c>
       <c r="G10">
-        <v>0.2271915813598326</v>
+        <v>0.2162532114831066</v>
       </c>
       <c r="H10">
-        <v>0.0008128549901025295</v>
+        <v>0.000804757453638949</v>
       </c>
       <c r="I10">
-        <v>0.002585919623810717</v>
+        <v>0.002794835917858229</v>
       </c>
       <c r="J10">
-        <v>0.2038308280256302</v>
+        <v>0.2100005138416279</v>
       </c>
       <c r="K10">
-        <v>0.1730366576204503</v>
+        <v>0.1603159507302507</v>
       </c>
       <c r="L10">
-        <v>0.1196109617533523</v>
+        <v>0.0941160598909514</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03774204870683917</v>
       </c>
       <c r="N10">
-        <v>0.881462629650116</v>
+        <v>0.1262330353789665</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.9051166797625569</v>
       </c>
       <c r="Q10">
-        <v>0.8585398475150043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.7903408860549206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.502283806954324</v>
+        <v>5.501587943347715</v>
       </c>
       <c r="C11">
-        <v>0.7720384006151164</v>
+        <v>0.7798422856928369</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.127354167744695</v>
+        <v>0.1256482030358583</v>
       </c>
       <c r="F11">
-        <v>0.8684432297152114</v>
+        <v>0.8286881014634417</v>
       </c>
       <c r="G11">
-        <v>0.1949713839633276</v>
+        <v>0.2104322549193114</v>
       </c>
       <c r="H11">
-        <v>0.01942104031857284</v>
+        <v>0.01938273115242239</v>
       </c>
       <c r="I11">
-        <v>0.003627514081737004</v>
+        <v>0.003860501801831617</v>
       </c>
       <c r="J11">
-        <v>0.1834155434225906</v>
+        <v>0.1689317442208242</v>
       </c>
       <c r="K11">
-        <v>0.1482077347736812</v>
+        <v>0.1380671437216581</v>
       </c>
       <c r="L11">
-        <v>0.1575202460648342</v>
+        <v>0.08605818479886906</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03034913828948227</v>
       </c>
       <c r="N11">
-        <v>0.7713241411071863</v>
+        <v>0.1668414350588492</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.7932436445190376</v>
       </c>
       <c r="Q11">
-        <v>0.7476674461670143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.6706817952733815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.636978237095548</v>
+        <v>5.635913051025113</v>
       </c>
       <c r="C12">
-        <v>0.8370253260544303</v>
+        <v>0.8372654772259978</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1066932476141691</v>
+        <v>0.1053406833520576</v>
       </c>
       <c r="F12">
-        <v>0.7711714127396974</v>
+        <v>0.7345615389628506</v>
       </c>
       <c r="G12">
-        <v>0.1687208523640678</v>
+        <v>0.1957475593723501</v>
       </c>
       <c r="H12">
-        <v>0.05801652147020775</v>
+        <v>0.05797184374882391</v>
       </c>
       <c r="I12">
-        <v>0.003753839776917012</v>
+        <v>0.003957280534748087</v>
       </c>
       <c r="J12">
-        <v>0.1683098720560281</v>
+        <v>0.1516924006779874</v>
       </c>
       <c r="K12">
-        <v>0.1344192834451334</v>
+        <v>0.127132736026609</v>
       </c>
       <c r="L12">
-        <v>0.189047593579275</v>
+        <v>0.08278780494226146</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02586438909224409</v>
       </c>
       <c r="N12">
-        <v>0.660532688635783</v>
+        <v>0.1995357866564689</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.6791952096010476</v>
       </c>
       <c r="Q12">
-        <v>0.6604464154925722</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.5876007162688097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.60541643136014</v>
+        <v>5.60467251208496</v>
       </c>
       <c r="C13">
-        <v>0.884846673720233</v>
+        <v>0.8788451161116484</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09077553644520542</v>
+        <v>0.08929475544017507</v>
       </c>
       <c r="F13">
-        <v>0.6738170082617714</v>
+        <v>0.6453433383858851</v>
       </c>
       <c r="G13">
-        <v>0.143788314003622</v>
+        <v>0.1678961949161675</v>
       </c>
       <c r="H13">
-        <v>0.113579358652359</v>
+        <v>0.1135475889999924</v>
       </c>
       <c r="I13">
-        <v>0.003488132323382409</v>
+        <v>0.00370972281223203</v>
       </c>
       <c r="J13">
-        <v>0.1554586092257892</v>
+        <v>0.1476406821479443</v>
       </c>
       <c r="K13">
-        <v>0.1270850500890766</v>
+        <v>0.122718120849501</v>
       </c>
       <c r="L13">
-        <v>0.2176129762558077</v>
+        <v>0.08181265588388409</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02322770313347444</v>
       </c>
       <c r="N13">
-        <v>0.5453510800135177</v>
+        <v>0.2273247820265425</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.5592408011039396</v>
       </c>
       <c r="Q13">
-        <v>0.580648624891154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.5241256365672626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.507941001494146</v>
+        <v>5.507713575501327</v>
       </c>
       <c r="C14">
-        <v>0.9113890603855452</v>
+        <v>0.9016253254883395</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08246857985881384</v>
+        <v>0.08081288750750559</v>
       </c>
       <c r="F14">
-        <v>0.6064436425827253</v>
+        <v>0.5852630590809156</v>
       </c>
       <c r="G14">
-        <v>0.1270382895957596</v>
+        <v>0.1438409113650536</v>
       </c>
       <c r="H14">
-        <v>0.1627654262623111</v>
+        <v>0.1627475310108508</v>
       </c>
       <c r="I14">
-        <v>0.003217723348112322</v>
+        <v>0.003484986249069344</v>
       </c>
       <c r="J14">
-        <v>0.1474997043013104</v>
+        <v>0.1490432354257578</v>
       </c>
       <c r="K14">
-        <v>0.1251199377281773</v>
+        <v>0.1224187690183645</v>
       </c>
       <c r="L14">
-        <v>0.2366826756837241</v>
+        <v>0.0819271806111086</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02234757695144873</v>
       </c>
       <c r="N14">
-        <v>0.4647717261515965</v>
+        <v>0.244796485620455</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.4749482402751255</v>
       </c>
       <c r="Q14">
-        <v>0.5284090959465857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.487233537000094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.44870482424875</v>
+        <v>5.448739692742322</v>
       </c>
       <c r="C15">
-        <v>0.9145298400216006</v>
+        <v>0.9042150627685999</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08081860029719223</v>
+        <v>0.07911445295806807</v>
       </c>
       <c r="F15">
-        <v>0.5890310771293485</v>
+        <v>0.5703971035836446</v>
       </c>
       <c r="G15">
-        <v>0.1227976875925307</v>
+        <v>0.1357708312614108</v>
       </c>
       <c r="H15">
-        <v>0.1752031287107769</v>
+        <v>0.1751910490829545</v>
       </c>
       <c r="I15">
-        <v>0.00318259500002771</v>
+        <v>0.003491422181073567</v>
       </c>
       <c r="J15">
-        <v>0.1458242112333465</v>
+        <v>0.1512106121885459</v>
       </c>
       <c r="K15">
-        <v>0.1256027501860995</v>
+        <v>0.1232261730305637</v>
       </c>
       <c r="L15">
-        <v>0.2402942942165822</v>
+        <v>0.08217039858736053</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.022425069521681</v>
       </c>
       <c r="N15">
-        <v>0.443785303549987</v>
+        <v>0.2476027193549868</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.4528267614809778</v>
       </c>
       <c r="Q15">
-        <v>0.5158746188151611</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.4802743146996136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.110984438215667</v>
+        <v>5.112248656683903</v>
       </c>
       <c r="C16">
-        <v>0.8704592871866907</v>
+        <v>0.8632440970007735</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08115257627529715</v>
+        <v>0.07938291287215637</v>
       </c>
       <c r="F16">
-        <v>0.5816192932778321</v>
+        <v>0.569940627511869</v>
       </c>
       <c r="G16">
-        <v>0.122981096394831</v>
+        <v>0.1192312813454635</v>
       </c>
       <c r="H16">
-        <v>0.162122684152834</v>
+        <v>0.1621268256865704</v>
       </c>
       <c r="I16">
-        <v>0.002642104873588735</v>
+        <v>0.003038665260127971</v>
       </c>
       <c r="J16">
-        <v>0.1494327423151702</v>
+        <v>0.1705646278651969</v>
       </c>
       <c r="K16">
-        <v>0.1336528410062157</v>
+        <v>0.1309609196738969</v>
       </c>
       <c r="L16">
-        <v>0.2255619331950101</v>
+        <v>0.08417726077884757</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02487667475745403</v>
       </c>
       <c r="N16">
-        <v>0.4236173491104154</v>
+        <v>0.2297086256185707</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.4303236671637904</v>
       </c>
       <c r="Q16">
-        <v>0.5236249109909608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5042486701811413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.904379453403862</v>
+        <v>4.906234217278495</v>
       </c>
       <c r="C17">
-        <v>0.8227264245491028</v>
+        <v>0.8188633927474029</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08533299578139175</v>
+        <v>0.08350181605157658</v>
       </c>
       <c r="F17">
-        <v>0.6110578924158929</v>
+        <v>0.6005899609721936</v>
       </c>
       <c r="G17">
-        <v>0.1319127049667372</v>
+        <v>0.1206423658680436</v>
       </c>
       <c r="H17">
-        <v>0.1241886731505275</v>
+        <v>0.1241918212596715</v>
       </c>
       <c r="I17">
-        <v>0.002418178823622164</v>
+        <v>0.002851009176338515</v>
       </c>
       <c r="J17">
-        <v>0.1564158668402342</v>
+        <v>0.1850223151888315</v>
       </c>
       <c r="K17">
-        <v>0.140772594209182</v>
+        <v>0.137348722401581</v>
       </c>
       <c r="L17">
-        <v>0.2039986737313271</v>
+        <v>0.08613018415692938</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02707215109212369</v>
       </c>
       <c r="N17">
-        <v>0.4497925621005692</v>
+        <v>0.2071450179412153</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.456660388004849</v>
       </c>
       <c r="Q17">
-        <v>0.5570670725452089</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.5413552612932335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.786537490400917</v>
+        <v>4.788618744437542</v>
       </c>
       <c r="C18">
-        <v>0.7660438367800282</v>
+        <v>0.7670188564198668</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09579076596956959</v>
+        <v>0.09375655142795658</v>
       </c>
       <c r="F18">
-        <v>0.6793678730311186</v>
+        <v>0.666369326086226</v>
       </c>
       <c r="G18">
-        <v>0.1507613620374642</v>
+        <v>0.134613841470582</v>
       </c>
       <c r="H18">
-        <v>0.07133732754291344</v>
+        <v>0.07133954593716396</v>
       </c>
       <c r="I18">
-        <v>0.002115206609476949</v>
+        <v>0.00251104789529677</v>
       </c>
       <c r="J18">
-        <v>0.1677374141994861</v>
+        <v>0.1990160720546683</v>
       </c>
       <c r="K18">
-        <v>0.1493324781935925</v>
+        <v>0.1445927504519684</v>
       </c>
       <c r="L18">
-        <v>0.1754752350494186</v>
+        <v>0.08876720397571125</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0296331552257687</v>
       </c>
       <c r="N18">
-        <v>0.522209698822806</v>
+        <v>0.1787623562918981</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.5311885951385307</v>
       </c>
       <c r="Q18">
-        <v>0.6206762124136702</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.6010019317843529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.74814988917592</v>
+        <v>4.750177001921713</v>
       </c>
       <c r="C19">
-        <v>0.7131870579891313</v>
+        <v>0.7198354585728168</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1141125197200985</v>
+        <v>0.1116959891760736</v>
       </c>
       <c r="F19">
-        <v>0.7758868003629757</v>
+        <v>0.7575774867170395</v>
       </c>
       <c r="G19">
-        <v>0.1760785473532493</v>
+        <v>0.1560061003805799</v>
       </c>
       <c r="H19">
-        <v>0.02617879420070324</v>
+        <v>0.02618604847700112</v>
       </c>
       <c r="I19">
-        <v>0.002278852475493309</v>
+        <v>0.002699128336368872</v>
       </c>
       <c r="J19">
-        <v>0.1814945932868071</v>
+        <v>0.2123861011345411</v>
       </c>
       <c r="K19">
-        <v>0.1598104248085397</v>
+        <v>0.1530275708406705</v>
       </c>
       <c r="L19">
-        <v>0.1467162179461141</v>
+        <v>0.09206001818924214</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03272288123145817</v>
       </c>
       <c r="N19">
-        <v>0.6351972632420768</v>
+        <v>0.150617399911674</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.647933550177882</v>
       </c>
       <c r="Q19">
-        <v>0.7031505434283218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.6741319295295654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.933800726971583</v>
+        <v>4.934973829724015</v>
       </c>
       <c r="C20">
-        <v>0.6629112937291666</v>
+        <v>0.6779938448336225</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1535010787842452</v>
+        <v>0.1504020310786593</v>
       </c>
       <c r="F20">
-        <v>0.9531506155215084</v>
+        <v>0.92105711980048</v>
       </c>
       <c r="G20">
-        <v>0.2211657701749843</v>
+        <v>0.2009241627591862</v>
       </c>
       <c r="H20">
-        <v>0.0004982997282647617</v>
+        <v>0.000507854024833776</v>
       </c>
       <c r="I20">
-        <v>0.002852311907531657</v>
+        <v>0.003252910387693042</v>
       </c>
       <c r="J20">
-        <v>0.2029105900412134</v>
+        <v>0.2226193327507673</v>
       </c>
       <c r="K20">
-        <v>0.1755745740055517</v>
+        <v>0.1640511161729368</v>
       </c>
       <c r="L20">
-        <v>0.1157277318568219</v>
+        <v>0.09597853789587951</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0379288311222119</v>
       </c>
       <c r="N20">
-        <v>0.8553687220733082</v>
+        <v>0.1211677262932724</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.8767394162336757</v>
       </c>
       <c r="Q20">
-        <v>0.8437174173879214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.7885205188126463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.545864394211264</v>
+        <v>5.544489282276572</v>
       </c>
       <c r="C21">
-        <v>0.7123612077640473</v>
+        <v>0.7254659980846725</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.165556402127514</v>
+        <v>0.1639723290689794</v>
       </c>
       <c r="F21">
-        <v>1.029547561421751</v>
+        <v>0.9736793701901547</v>
       </c>
       <c r="G21">
-        <v>0.2366839342788722</v>
+        <v>0.2617381976427779</v>
       </c>
       <c r="H21">
-        <v>0.001352702729041755</v>
+        <v>0.001273648722056708</v>
       </c>
       <c r="I21">
-        <v>0.004261555509657455</v>
+        <v>0.004484304511737314</v>
       </c>
       <c r="J21">
-        <v>0.204457265328216</v>
+        <v>0.1710755530494303</v>
       </c>
       <c r="K21">
-        <v>0.1665563581109772</v>
+        <v>0.1500497418797888</v>
       </c>
       <c r="L21">
-        <v>0.1255139222375661</v>
+        <v>0.08965004481403316</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.03622590804446801</v>
       </c>
       <c r="N21">
-        <v>0.9694118712609452</v>
+        <v>0.1356825184436019</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.000579105246146</v>
       </c>
       <c r="Q21">
-        <v>0.8802068859403391</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.7701030026262572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.945856467606575</v>
+        <v>5.942594481743697</v>
       </c>
       <c r="C22">
-        <v>0.7453666750821242</v>
+        <v>0.756122568571584</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.171523939744425</v>
+        <v>0.1711993155755565</v>
       </c>
       <c r="F22">
-        <v>1.074599179937522</v>
+        <v>1.002182233388396</v>
       </c>
       <c r="G22">
-        <v>0.2465492763997403</v>
+        <v>0.3082851744718056</v>
       </c>
       <c r="H22">
-        <v>0.002236989212911489</v>
+        <v>0.002058077184713958</v>
       </c>
       <c r="I22">
-        <v>0.005134049557241838</v>
+        <v>0.005118509365743762</v>
       </c>
       <c r="J22">
-        <v>0.2053846340681318</v>
+        <v>0.1452505595849942</v>
       </c>
       <c r="K22">
-        <v>0.1607868203713316</v>
+        <v>0.1408942548109948</v>
       </c>
       <c r="L22">
-        <v>0.1330417259726318</v>
+        <v>0.0857918980460366</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.03526861119905078</v>
       </c>
       <c r="N22">
-        <v>1.032831621662126</v>
+        <v>0.1465958435109727</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.070573222479169</v>
       </c>
       <c r="Q22">
-        <v>0.9032858058355231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.7547551555267944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.732440145778753</v>
+        <v>5.730279853005754</v>
       </c>
       <c r="C23">
-        <v>0.7252981843307964</v>
+        <v>0.7385314784739023</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.168480245722062</v>
+        <v>0.1672186387941714</v>
       </c>
       <c r="F23">
-        <v>1.052602651487874</v>
+        <v>0.9908714294830929</v>
       </c>
       <c r="G23">
-        <v>0.2424215546927968</v>
+        <v>0.278496190651083</v>
       </c>
       <c r="H23">
-        <v>0.001742203009541421</v>
+        <v>0.001623594393729055</v>
       </c>
       <c r="I23">
-        <v>0.004364581459237016</v>
+        <v>0.004424301533036079</v>
       </c>
       <c r="J23">
-        <v>0.205480890810982</v>
+        <v>0.1621958492998132</v>
       </c>
       <c r="K23">
-        <v>0.1645154902701851</v>
+        <v>0.1467341752374214</v>
       </c>
       <c r="L23">
-        <v>0.1286529232403666</v>
+        <v>0.08810295619318254</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.03621434993435813</v>
       </c>
       <c r="N23">
-        <v>0.9975427108790029</v>
+        <v>0.1399991916421044</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.031122830882907</v>
       </c>
       <c r="Q23">
-        <v>0.8946183603721067</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.7711015829595738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.924223019724764</v>
+        <v>4.925400868280292</v>
       </c>
       <c r="C24">
-        <v>0.6535902142767895</v>
+        <v>0.6690076823910545</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1567562317545068</v>
+        <v>0.1535795277666203</v>
       </c>
       <c r="F24">
-        <v>0.9678640142051051</v>
+        <v>0.9350579922490425</v>
       </c>
       <c r="G24">
-        <v>0.2261148600529665</v>
+        <v>0.2050480195984647</v>
       </c>
       <c r="H24">
-        <v>0.000407734176105512</v>
+        <v>0.0004176977542212912</v>
       </c>
       <c r="I24">
-        <v>0.002393058658039848</v>
+        <v>0.002693684663205964</v>
       </c>
       <c r="J24">
-        <v>0.2055767914529625</v>
+        <v>0.2254522621147217</v>
       </c>
       <c r="K24">
-        <v>0.1784969131575025</v>
+        <v>0.1664960924360557</v>
       </c>
       <c r="L24">
-        <v>0.1126576429163677</v>
+        <v>0.0968987565113224</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03884406432770504</v>
       </c>
       <c r="N24">
-        <v>0.8666538925594693</v>
+        <v>0.1180558267631042</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.8885021539419995</v>
       </c>
       <c r="Q24">
-        <v>0.8597890857943042</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8032277408908328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.052151863346467</v>
+        <v>4.055309452535653</v>
       </c>
       <c r="C25">
-        <v>0.5767093705969444</v>
+        <v>0.5807818089940042</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1441708307252902</v>
+        <v>0.1416288786634112</v>
       </c>
       <c r="F25">
-        <v>0.8805083757576</v>
+        <v>0.8570274980283159</v>
       </c>
       <c r="G25">
-        <v>0.2109964938803088</v>
+        <v>0.1880020549191102</v>
       </c>
       <c r="H25">
-        <v>1.632009916741062E-05</v>
+        <v>5.935485577701627E-06</v>
       </c>
       <c r="I25">
-        <v>0.001244777786510554</v>
+        <v>0.001565233575960612</v>
       </c>
       <c r="J25">
-        <v>0.2071717557061561</v>
+        <v>0.2335871897178095</v>
       </c>
       <c r="K25">
-        <v>0.1955448498005019</v>
+        <v>0.1843236882321122</v>
       </c>
       <c r="L25">
-        <v>0.09542068024098427</v>
+        <v>0.105972258410997</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0413224602326796</v>
       </c>
       <c r="N25">
-        <v>0.7261917825923945</v>
+        <v>0.09854523154066186</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.7425567305130159</v>
       </c>
       <c r="Q25">
-        <v>0.8305552546582646</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.7898753409085657</v>
       </c>
     </row>
   </sheetData>
